--- a/data/population_models/models_summary_kriegberg.xlsx
+++ b/data/population_models/models_summary_kriegberg.xlsx
@@ -417,38 +417,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.93 [0.908-0.949]</t>
+          <t>0.76 [0.511-0.906]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.04 [0.027-0.06]</t>
+          <t>0.25 [0.056-0.659]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.1 [0.063-0.154]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>766 [533-1142]</t>
+          <t>64 [36-166]</t>
         </is>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>308.6874181395349</v>
+        <v>87.04659848148148</v>
       </c>
       <c r="H2">
-        <v>21.93164930517901</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.652630683147479E-06</v>
+        <v>0.3330270270279794</v>
       </c>
       <c r="J2">
-        <v>-483.6402</v>
+        <v>-41.443963</v>
       </c>
     </row>
     <row r="3">
@@ -459,38 +459,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.81 [0.216-0.96]</t>
+          <t>0.7 [0.483-0.984]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.06 [0.037-0.105]</t>
+          <t>0.24 [0.093-0.499]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.04 [0.019-0.086]</t>
+          <t>0.1 [0.074-0.134]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>684 [479-1018]</t>
+          <t>64 [39-137]</t>
         </is>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>301.9479188343558</v>
+        <v>104.21149</v>
       </c>
       <c r="H3">
-        <v>15.19214999999997</v>
+        <v>17.16489151851852</v>
       </c>
       <c r="I3">
-        <v>0.0001061865333005682</v>
+        <v>6.239799657287439E-05</v>
       </c>
       <c r="J3">
-        <v>-510.38027</v>
+        <v>-49.997589</v>
       </c>
     </row>
     <row r="4">
@@ -501,38 +501,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.93 [0.91-0.953]</t>
+          <t>0.76 [0.477-0.92]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.04 [0.026-0.06]</t>
+          <t>0.25 [0.042-0.714]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.1 [0.052-0.18]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>748 [521-1117]</t>
+          <t>65 [36-181]</t>
         </is>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4">
-        <v>309.3177771929825</v>
+        <v>89.86769930769231</v>
       </c>
       <c r="H4">
-        <v>22.5620083586266</v>
+        <v>2.821100826210824</v>
       </c>
       <c r="I4">
-        <v>2.665170722055138E-06</v>
+        <v>0.08126157201169604</v>
       </c>
       <c r="J4">
-        <v>-485.12816</v>
+        <v>-41.449073</v>
       </c>
     </row>
     <row r="5">
@@ -543,38 +543,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.84 [0.306-0.968]</t>
+          <t>0.7 [0.607-0.859]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.06 [0.035-0.097]</t>
+          <t>0.24 [0.088-0.516]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.04 [0.021-0.09]</t>
+          <t>0.1 [0.071-0.138]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>672 [468-1009]</t>
+          <t>64 [39-137]</t>
         </is>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>299.9815425925926</v>
+        <v>109.4321176315789</v>
       </c>
       <c r="H5">
-        <v>13.22577375823676</v>
+        <v>22.38551915009747</v>
       </c>
       <c r="I5">
-        <v>0.000283832823891267</v>
+        <v>4.586968520680744E-06</v>
       </c>
       <c r="J5">
-        <v>-514.70611</v>
+        <v>-49.998015</v>
       </c>
     </row>
     <row r="6">
@@ -585,38 +585,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.93 [0.907-0.951]</t>
+          <t>0.76 [0.479-0.92]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.04 [0.026-0.063]</t>
+          <t>0.25 [0.04-0.724]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.1 [0.052-0.18]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>757 [526-1132]</t>
+          <t>65 [36-180]</t>
         </is>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>310.5573376470588</v>
+        <v>92.917738</v>
       </c>
       <c r="H6">
-        <v>23.80156881270295</v>
+        <v>5.871139518518518</v>
       </c>
       <c r="I6">
-        <v>1.434028891317156E-06</v>
+        <v>0.01768388706520641</v>
       </c>
       <c r="J6">
-        <v>-486.03183</v>
+        <v>-41.451341</v>
       </c>
     </row>
     <row r="7">
@@ -627,38 +627,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.91 [0.665-0.956]</t>
+          <t>0.85 [0.535-1]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.07 [0.042-0.126]</t>
+          <t>0.23 [0.05-0.494]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.04 [0.018-0.067]</t>
+          <t>0.07 [0.033-0.138]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>633 [450-929]</t>
+          <t>60 [38-124]</t>
         </is>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>289.4675464596273</v>
+        <v>112.9398762222222</v>
       </c>
       <c r="H7">
-        <v>2.711777625271452</v>
+        <v>25.89327774074073</v>
       </c>
       <c r="I7">
-        <v>0.05446880781042903</v>
+        <v>7.94009429028247E-07</v>
       </c>
       <c r="J7">
-        <v>-527.60888</v>
+        <v>-52.291426</v>
       </c>
     </row>
     <row r="8">
@@ -669,38 +669,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.92 [0.892-0.938]</t>
+          <t>0.8 [0.601-0.915]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.04 [0.028-0.067]</t>
+          <t>0.18 [0.052-0.464]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.07 [0.034-0.141]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>826 [569-1240]</t>
+          <t>78 [44-177]</t>
         </is>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
-        <v>301.6237471929825</v>
+        <v>87.1192323076923</v>
       </c>
       <c r="H8">
-        <v>14.8679783586266</v>
+        <v>0.0726338262108186</v>
       </c>
       <c r="I8">
-        <v>0.0001248712387474658</v>
+        <v>0.3211494964769983</v>
       </c>
       <c r="J8">
-        <v>-492.82219</v>
+        <v>-44.19754</v>
       </c>
     </row>
     <row r="9">
@@ -711,38 +711,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.8 [0.312-0.944]</t>
+          <t>0.7 [0.486-0.985]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.06 [0.035-0.106]</t>
+          <t>0.24 [0.086-0.509]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03 [0.008-0.079]</t>
+          <t>0.09 [0.059-0.138]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>699 [475-1080]</t>
+          <t>63 [39-133]</t>
         </is>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>294.4699325925926</v>
+        <v>108.7790596315789</v>
       </c>
       <c r="H9">
-        <v>7.714163758236737</v>
+        <v>21.73246115009746</v>
       </c>
       <c r="I9">
-        <v>0.00446574090881681</v>
+        <v>6.358219293604716E-06</v>
       </c>
       <c r="J9">
-        <v>-520.21772</v>
+        <v>-50.651073</v>
       </c>
     </row>
     <row r="10">
@@ -753,38 +753,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.92 [0.893-0.94]</t>
+          <t>0.8 [0.598-0.915]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.04 [0.028-0.068]</t>
+          <t>0.18 [0.049-0.482]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.07 [0.034-0.147]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>812 [560-1220]</t>
+          <t>77 [43-177]</t>
         </is>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
       <c r="G10">
-        <v>299.7600076470588</v>
+        <v>90.13548400000001</v>
       </c>
       <c r="H10">
-        <v>13.00423881270297</v>
+        <v>3.088885518518524</v>
       </c>
       <c r="I10">
-        <v>0.0003170796135962569</v>
+        <v>0.07107821494683383</v>
       </c>
       <c r="J10">
-        <v>-496.82917</v>
+        <v>-44.233596</v>
       </c>
     </row>
     <row r="11">
@@ -795,38 +795,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.86 [0.204-0.964]</t>
+          <t>0.7 [0.361-0.985]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.05 [0.028-0.104]</t>
+          <t>0.24 [0.081-0.526]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02 [0.002-0.132]</t>
+          <t>0.09 [0.06-0.14]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>676 [445-1093]</t>
+          <t>63 [39-133]</t>
         </is>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>293.0600264596274</v>
+        <v>114.4929812222222</v>
       </c>
       <c r="H11">
-        <v>6.304257625271475</v>
+        <v>27.44638274074075</v>
       </c>
       <c r="I11">
-        <v>0.009037550760031529</v>
+        <v>3.652356773294304E-07</v>
       </c>
       <c r="J11">
-        <v>-524.0164</v>
+        <v>-50.738321</v>
       </c>
     </row>
     <row r="12">
@@ -837,38 +837,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.92 [0.889-0.936]</t>
+          <t>0.8 [0.602-0.913]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.04 [0.028-0.07]</t>
+          <t>0.18 [0.049-0.488]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0 [0-1]</t>
+          <t>0.07 [0.031-0.14]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>839 [577-1263]</t>
+          <t>78 [44-179]</t>
         </is>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12">
-        <v>302.6632876470588</v>
+        <v>89.94076099999999</v>
       </c>
       <c r="H12">
-        <v>15.90751881270296</v>
+        <v>2.894162518518513</v>
       </c>
       <c r="I12">
-        <v>7.425557724974242E-05</v>
+        <v>0.07834658564970837</v>
       </c>
       <c r="J12">
-        <v>-493.92589</v>
+        <v>-44.428319</v>
       </c>
     </row>
     <row r="13">
@@ -879,38 +879,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.81 [0.295-0.951]</t>
+          <t>0.7 [0.31-0.746]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.07 [0.038-0.136]</t>
+          <t>0.26 [0.05-0.626]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.03 [0.015-0.071]</t>
+          <t>0.07 [0.029-0.16]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>663 [467-983]</t>
+          <t>62 [38-135]</t>
         </is>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>293.5568964596274</v>
+        <v>112.1771802222222</v>
       </c>
       <c r="H13">
-        <v>6.801127625271477</v>
+        <v>25.13058174074075</v>
       </c>
       <c r="I13">
-        <v>0.007049475409602166</v>
+        <v>1.162633926627651E-06</v>
       </c>
       <c r="J13">
-        <v>-523.51953</v>
+        <v>-53.054122</v>
       </c>
     </row>
     <row r="14">
@@ -921,38 +921,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.92 [0.888-0.936]</t>
+          <t>0.8 [0.599-0.913]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.04 [0.028-0.072]</t>
+          <t>0.19 [0.046-0.505]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.07 [0.031-0.145]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>832 [572-1253]</t>
+          <t>78 [44-178]</t>
         </is>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
       <c r="G14">
-        <v>299.8737618934912</v>
+        <v>93.15929966666667</v>
       </c>
       <c r="H14">
-        <v>13.1179930591353</v>
+        <v>6.112701185185188</v>
       </c>
       <c r="I14">
-        <v>0.0002995483277938715</v>
+        <v>0.01567195887199801</v>
       </c>
       <c r="J14">
-        <v>-498.88402</v>
+        <v>-44.516446</v>
       </c>
     </row>
     <row r="15">
@@ -963,38 +963,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.91 [0.45-0.965]</t>
+          <t>0.77 [0.425-0.997]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.07 [0.034-0.131]</t>
+          <t>0.24 [0.029-0.72]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.03 [0.011-0.072]</t>
+          <t>0.07 [0.022-0.209]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>620 [431-936]</t>
+          <t>63 [38-143]</t>
         </is>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>287.76401</v>
+        <v>118.4601333529412</v>
       </c>
       <c r="H15">
-        <v>1.008241165644108</v>
+        <v>31.41353487145969</v>
       </c>
       <c r="I15">
-        <v>0.1276633133377709</v>
+        <v>5.02478003156237E-08</v>
       </c>
       <c r="J15">
-        <v>-531.73105</v>
+        <v>-53.254829</v>
       </c>
     </row>
     <row r="16">
@@ -1005,38 +1005,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.86 [0.758-0.926]</t>
+          <t>0.83 [0.518-0.956]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.06 [0.022-0.167]</t>
+          <t>0.33 [0.023-0.653]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0 [0-0.84]</t>
+          <t>0.12 [0.12-0.127]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1136 [608-2277]</t>
+          <t>73 [40-188]</t>
         </is>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>287.6382325925926</v>
+        <v>104.7037256315789</v>
       </c>
       <c r="H16">
-        <v>0.8824637582367245</v>
+        <v>17.65712715009747</v>
       </c>
       <c r="I16">
-        <v>0.1359497235471803</v>
+        <v>4.878463237258471E-05</v>
       </c>
       <c r="J16">
-        <v>-527.0494200000001</v>
+        <v>-54.726407</v>
       </c>
     </row>
     <row r="17">
@@ -1047,38 +1047,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.81 [0.331-0.901]</t>
+          <t>0.63 [0.548-0.74]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.19 [0.019-0.37]</t>
+          <t>0.41 [0.031-0.755]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0 [0-0.029]</t>
+          <t>0.12 [0.119-0.127]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>688 [441-1148]</t>
+          <t>62 [35-162]</t>
         </is>
       </c>
       <c r="F17">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>291.5582162745098</v>
+        <v>160.9105593333333</v>
       </c>
       <c r="H17">
-        <v>4.802447440153912</v>
+        <v>73.86396085185186</v>
       </c>
       <c r="I17">
-        <v>0.01914981962704228</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>-545.75252</v>
+        <v>-59.431854</v>
       </c>
     </row>
     <row r="18">
@@ -1089,38 +1089,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.93 [0.905-0.947]</t>
+          <t>0.76 [0.512-0.906]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.04 [0.027-0.063]</t>
+          <t>0.25 [0.053-0.673]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0 [0-0]</t>
+          <t>0.1 [0.063-0.156]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>775 [538-1159]</t>
+          <t>64 [36-166]</t>
         </is>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18">
-        <v>310.0744971929824</v>
+        <v>89.87052730769231</v>
       </c>
       <c r="H18">
-        <v>23.31872835862657</v>
+        <v>2.823928826210832</v>
       </c>
       <c r="I18">
-        <v>1.825598934304528E-06</v>
+        <v>0.081146749347626</v>
       </c>
       <c r="J18">
-        <v>-484.37144</v>
+        <v>-41.446245</v>
       </c>
     </row>
     <row r="19">
@@ -1131,38 +1131,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.84 [0.296-0.951]</t>
+          <t>0.83 [0.539-0.875]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.08 [0.042-0.132]</t>
+          <t>0.24 [0.047-0.516]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.04 [0.019-0.069]</t>
+          <t>0.07 [0.032-0.141]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>654 [462-966]</t>
+          <t>60 [38-129]</t>
         </is>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>295.0474225925926</v>
+        <v>107.2893546315789</v>
       </c>
       <c r="H19">
-        <v>8.291653758236748</v>
+        <v>20.24275615009746</v>
       </c>
       <c r="I19">
-        <v>0.003345747503713857</v>
+        <v>1.339124121898431E-05</v>
       </c>
       <c r="J19">
-        <v>-519.64023</v>
+        <v>-52.140778</v>
       </c>
     </row>
     <row r="20">
@@ -1173,38 +1173,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.79 [0.731-0.845]</t>
+          <t>0.71 [0.535-0.843]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.11 [0.066-0.172]</t>
+          <t>0.34 [0.11-0.69]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.07 [0.045-0.319]</t>
+          <t>0.12 [0.035-0.493]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>657 [459-984]</t>
+          <t>55 [34-131]</t>
         </is>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>286.7557688343559</v>
+        <v>100.514298</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>13.46769951851851</v>
       </c>
       <c r="I20">
-        <v>0.2113503148468601</v>
+        <v>0.0003962832243656278</v>
       </c>
       <c r="J20">
-        <v>-525.57242</v>
+        <v>-53.694782</v>
       </c>
     </row>
     <row r="21">
@@ -1215,38 +1215,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.77 [0.379-0.945]</t>
+          <t>0.69 [0.48-0.853]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.11 [0.058-0.184]</t>
+          <t>0.32 [0.122-0.623]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.07 [0.025-0.572]</t>
+          <t>0.12 [0.034-0.511]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>667 [463-1004]</t>
+          <t>56 [35-123]</t>
         </is>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G21">
-        <v>299.4281385714286</v>
+        <v>148.3504596153846</v>
       </c>
       <c r="H21">
-        <v>12.6723697370727</v>
+        <v>61.30386113390313</v>
       </c>
       <c r="I21">
-        <v>0.0003743111588882351</v>
+        <v>1.623735087407893E-14</v>
       </c>
       <c r="J21">
-        <v>-535.23835</v>
+        <v>-59.274005</v>
       </c>
     </row>
     <row r="22">
@@ -1257,38 +1257,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.8 [1-0]</t>
+          <t>0.73 [0.533-0.859]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.1 [1-0]</t>
+          <t>0.3 [0.071-0.719]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.08 [0.6-0]</t>
+          <t>0.12 [0.029-0.635]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>650 [650-650]</t>
+          <t>63 [35-186]</t>
         </is>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>287.2959025925926</v>
+        <v>105.325859631579</v>
       </c>
       <c r="H22">
-        <v>0.5401337582367205</v>
+        <v>18.27926115009747</v>
       </c>
       <c r="I22">
-        <v>0.1613297065263859</v>
+        <v>3.574278222194166E-05</v>
       </c>
       <c r="J22">
-        <v>-527.39175</v>
+        <v>-54.104273</v>
       </c>
     </row>
     <row r="23">
@@ -1299,38 +1299,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.77 [0.262-0.965]</t>
+          <t>0.66 [0.347-0.735]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.11 [0.053-0.206]</t>
+          <t>0.31 [0.093-0.651]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.07 [0.025-0.574]</t>
+          <t>0.12 [0.033-0.328]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>666 [458-1016]</t>
+          <t>60 [37-132]</t>
         </is>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G23">
-        <v>301.7950262745098</v>
+        <v>160.8692983333333</v>
       </c>
       <c r="H23">
-        <v>15.0392574401539</v>
+        <v>73.82269985185187</v>
       </c>
       <c r="I23">
-        <v>0.0001146224375907098</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>-535.51572</v>
+        <v>-59.473115</v>
       </c>
     </row>
     <row r="24">
@@ -1341,38 +1341,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.8 [0.742-0.849]</t>
+          <t>0.72 [0.535-0.857]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.11 [0.062-0.173]</t>
+          <t>0.3 [0.061-0.751]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.08 [0.044-0.388]</t>
+          <t>0.12 [0.028-0.513]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>650 [456-967]</t>
+          <t>63 [35-183]</t>
         </is>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G24">
-        <v>289.6683864596274</v>
+        <v>111.0940512222222</v>
       </c>
       <c r="H24">
-        <v>2.91261762527148</v>
+        <v>24.04745274074074</v>
       </c>
       <c r="I24">
-        <v>0.04926471989457243</v>
+        <v>1.99821155408167E-06</v>
       </c>
       <c r="J24">
-        <v>-527.40804</v>
+        <v>-54.137251</v>
       </c>
     </row>
     <row r="25">
@@ -1383,38 +1383,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.88 [0.33-0.963]</t>
+          <t>0.67 [0.291-0.873]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.09 [0.045-0.183]</t>
+          <t>0.32 [0.08-0.637]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.07 [0.021-0.701]</t>
+          <t>0.12 [0.028-0.51]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>746 [486-1210]</t>
+          <t>80 [42-205]</t>
         </is>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G25">
-        <v>302.0838168421053</v>
+        <v>174.5819133636364</v>
       </c>
       <c r="H25">
-        <v>15.32804800774937</v>
+        <v>87.53531488215489</v>
       </c>
       <c r="I25">
-        <v>9.921094013344334E-05</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>-537.90597</v>
+        <v>-60.790803</v>
       </c>
     </row>
     <row r="26">
@@ -1425,38 +1425,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.8 [0.735-0.847]</t>
+          <t>0.72 [0.528-0.857]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.11 [0.062-0.176]</t>
+          <t>0.32 [0.076-0.745]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.07 [0.042-0.318]</t>
+          <t>0.12 [0.025-0.535]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>664 [463-995]</t>
+          <t>58 [34-147]</t>
         </is>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26">
-        <v>289.1421325925926</v>
+        <v>105.691611631579</v>
       </c>
       <c r="H26">
-        <v>2.386363758236712</v>
+        <v>18.64501315009747</v>
       </c>
       <c r="I26">
-        <v>0.06409299897401671</v>
+        <v>2.976914197662823E-05</v>
       </c>
       <c r="J26">
-        <v>-525.54552</v>
+        <v>-53.738521</v>
       </c>
     </row>
     <row r="27">
@@ -1467,38 +1467,38 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.78 [0.173-0.952]</t>
+          <t>0.68 [0.472-0.853]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.1 [0.047-0.211]</t>
+          <t>0.36 [0.099-0.735]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.07 [0.019-0.518]</t>
+          <t>0.12 [0.028-0.516]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>670 [463-1016]</t>
+          <t>54 [35-119]</t>
         </is>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G27">
-        <v>301.6948462745098</v>
+        <v>160.8222343333333</v>
       </c>
       <c r="H27">
-        <v>14.93907744015388</v>
+        <v>73.77563585185186</v>
       </c>
       <c r="I27">
-        <v>0.0001205101010563231</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>-535.6159</v>
+        <v>-59.520179</v>
       </c>
     </row>
     <row r="28">
@@ -1509,38 +1509,38 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.8 [0.742-0.853]</t>
+          <t>0.72 [0.514-0.863]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.1 [0.059-0.175]</t>
+          <t>0.31 [0.052-0.797]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.07 [0.042-0.412]</t>
+          <t>0.12 [0.021-0.695]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>654 [457-978]</t>
+          <t>62 [34-188]</t>
         </is>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G28">
-        <v>289.6367164596273</v>
+        <v>111.1111282222222</v>
       </c>
       <c r="H28">
-        <v>2.88094762527146</v>
+        <v>24.06452974074074</v>
       </c>
       <c r="I28">
-        <v>0.05005103596108108</v>
+        <v>1.981222458639957E-06</v>
       </c>
       <c r="J28">
-        <v>-527.43971</v>
+        <v>-54.120174</v>
       </c>
     </row>
     <row r="29">
@@ -1551,38 +1551,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.82 [0.293-0.964]</t>
+          <t>0.68 [0.468-0.978]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.1 [0.046-0.207]</t>
+          <t>0.36 [0.091-0.73]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.07 [0.022-0.401]</t>
+          <t>0.12 [0.031-0.566]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>645 [447-979]</t>
+          <t>57 [36-125]</t>
         </is>
       </c>
       <c r="F29">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>305.2379268421053</v>
+        <v>175.3834563636364</v>
       </c>
       <c r="H29">
-        <v>18.48215800774938</v>
+        <v>88.33685788215487</v>
       </c>
       <c r="I29">
-        <v>2.049525286593902E-05</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>-534.7518700000001</v>
+        <v>-59.98926</v>
       </c>
     </row>
     <row r="30">
@@ -1593,38 +1593,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.8 [0.735-0.847]</t>
+          <t>0.72 [0.525-0.857]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.11 [0.06-0.18]</t>
+          <t>0.32 [0.067-0.775]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.07 [0.042-0.421]</t>
+          <t>0.12 [0.024-0.443]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>663 [462-994]</t>
+          <t>57 [34-148]</t>
         </is>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>291.5034764596273</v>
+        <v>111.4904902222222</v>
       </c>
       <c r="H30">
-        <v>4.74770762527146</v>
+        <v>24.44389174074075</v>
       </c>
       <c r="I30">
-        <v>0.01968118698473208</v>
+        <v>1.63891273832972E-06</v>
       </c>
       <c r="J30">
-        <v>-525.57294</v>
+        <v>-53.740812</v>
       </c>
     </row>
     <row r="31">
@@ -1635,38 +1635,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.83 [0.174-0.93]</t>
+          <t>0.66 [0.421-0.992]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.1 [0.045-0.197]</t>
+          <t>0.46 [0.051-0.69]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.07 [0.018-0.538]</t>
+          <t>0.12 [0.03-0.447]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>778 [503-1269]</t>
+          <t>133 [44-665]</t>
         </is>
       </c>
       <c r="F31">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G31">
-        <v>301.1674968421053</v>
+        <v>172.5183543636364</v>
       </c>
       <c r="H31">
-        <v>14.41172800774939</v>
+        <v>85.47175588215489</v>
       </c>
       <c r="I31">
-        <v>0.0001568685654218038</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>-538.8223</v>
+        <v>-62.854361</v>
       </c>
     </row>
     <row r="32">
@@ -1677,38 +1677,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.8 [0.742-0.853]</t>
+          <t>0.72 [0.531-0.856]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.1 [0.058-0.179]</t>
+          <t>0.31 [0.063-0.742]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.07 [-29213.684-29213.933]</t>
+          <t>0.12 [0.025-0.538]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>655 [458-980]</t>
+          <t>63 [36-157]</t>
         </is>
       </c>
       <c r="F32">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G32">
-        <v>292.01949</v>
+        <v>117.5645023529412</v>
       </c>
       <c r="H32">
-        <v>5.263721165644085</v>
+        <v>30.51790387145969</v>
       </c>
       <c r="I32">
-        <v>0.01520548828227181</v>
+        <v>7.863227756384226E-08</v>
       </c>
       <c r="J32">
-        <v>-527.4755699999999</v>
+        <v>-54.15046</v>
       </c>
     </row>
     <row r="33">
@@ -1719,38 +1719,38 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.87 [0.5-0]</t>
+          <t>0.65 [0.417-0.867]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.09 [1-0]</t>
+          <t>0.46 [0.04-0.761]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.06 [0.5-0]</t>
+          <t>0.12 [0.028-0.338]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>786 [786-786]</t>
+          <t>132 [43-669]</t>
         </is>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G33">
-        <v>304.4148615231788</v>
+        <v>190.55124</v>
       </c>
       <c r="H33">
-        <v>17.65909268882291</v>
+        <v>103.5046415185185</v>
       </c>
       <c r="I33">
-        <v>3.092998034645175E-05</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>-538.2894700000001</v>
+        <v>-62.85784</v>
       </c>
     </row>
     <row r="34">
@@ -1761,38 +1761,38 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.82 [1-0]</t>
+          <t>0.78 [0.472-0.933]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.17 [1-0]</t>
+          <t>0.37 [0.128-0.851]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.1 [0.5-0]</t>
+          <t>0.12 [0.001-0.592]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>679 [679-679]</t>
+          <t>88 [29-1164]</t>
         </is>
       </c>
       <c r="F34">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G34">
-        <v>306.4286462745098</v>
+        <v>161.2669543333333</v>
       </c>
       <c r="H34">
-        <v>19.67287744015391</v>
+        <v>74.22035585185185</v>
       </c>
       <c r="I34">
-        <v>1.130034860916514E-05</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>-530.8821</v>
+        <v>-59.075459</v>
       </c>
     </row>
     <row r="35">
@@ -1803,38 +1803,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.76 [0.232-0.892]</t>
+          <t>0.62 [0.412-0.674]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.27 [0.109-0.517]</t>
+          <t>0.63 [0.424-0.794]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.05 [0.001-0.608]</t>
+          <t>0.12 [0.051-0.245]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>694 [439-1175]</t>
+          <t>38 [28-91]</t>
         </is>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G35">
-        <v>314.1371666666667</v>
+        <v>386.937527</v>
       </c>
       <c r="H35">
-        <v>27.38139783231082</v>
+        <v>299.8909285185185</v>
       </c>
       <c r="I35">
-        <v>2.394461764273403E-07</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>-548.62456</v>
+        <v>-64.87155300000001</v>
       </c>
     </row>
     <row r="36">
@@ -1845,38 +1845,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.79 [1-0]</t>
+          <t>0.71 [0.535-0.844]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.11 [1-0]</t>
+          <t>0.34 [0.088-0.745]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.07 [0.6-0]</t>
+          <t>0.12 [0.033-0.547]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>658 [658-658]</t>
+          <t>55 [34-132]</t>
         </is>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G36">
-        <v>289.0913525925926</v>
+        <v>105.7353426315789</v>
       </c>
       <c r="H36">
-        <v>2.335583758236737</v>
+        <v>18.68874415009746</v>
       </c>
       <c r="I36">
-        <v>0.06574115501930779</v>
+        <v>2.912528953250178E-05</v>
       </c>
       <c r="J36">
-        <v>-525.59629</v>
+        <v>-53.69479</v>
       </c>
     </row>
     <row r="37">
@@ -1887,38 +1887,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.79 [0.8-0]</t>
+          <t>0.68 [0.422-0.872]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.09 [1-0]</t>
+          <t>0.31 [0.096-0.571]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.07 [0.4-0]</t>
+          <t>0.12 [0.029-0.37]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>641 [641-641]</t>
+          <t>80 [42-208]</t>
         </is>
       </c>
       <c r="F37">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G37">
-        <v>306.8022562745098</v>
+        <v>159.5733643333333</v>
       </c>
       <c r="H37">
-        <v>20.0464874401539</v>
+        <v>72.52676585185185</v>
       </c>
       <c r="I37">
-        <v>9.374831286717117E-06</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>-530.5084900000001</v>
+        <v>-60.769049</v>
       </c>
     </row>
   </sheetData>

--- a/data/population_models/models_summary_kriegberg.xlsx
+++ b/data/population_models/models_summary_kriegberg.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,1517 +408,4240 @@
           <t>Deviance</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ind_per_ha</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.76 [0.511-0.906]</t>
+          <t>0.94 [0.832-0.956]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.25 [0.056-0.659]</t>
+          <t>0.08 [0.043-0.126]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.1 [0.063-0.154]</t>
+          <t>0.06 [0.028-0.105]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64 [36-166]</t>
+          <t>661 [468-971]</t>
         </is>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>87.04659848148148</v>
+        <v>271.7338443113773</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3330270270279794</v>
+        <v>0.3839741921345565</v>
       </c>
       <c r="J2">
-        <v>-41.443963</v>
+        <v>-531.43906</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>70 [48-104]</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.7 [0.483-0.984]</t>
+          <t>0.92 [0.841-0.96]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.24 [0.093-0.499]</t>
+          <t>0.07 [0.039-0.131]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.1 [0.074-0.134]</t>
+          <t>0.05 [0.02-0.118]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64 [39-137]</t>
+          <t>643 [454-951]</t>
         </is>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>104.21149</v>
+        <v>273.2132712048193</v>
       </c>
       <c r="H3">
-        <v>17.16489151851852</v>
+        <v>1.479426893441996</v>
       </c>
       <c r="I3">
-        <v>6.239799657287439E-05</v>
+        <v>0.1832519341880248</v>
       </c>
       <c r="J3">
-        <v>-49.997589</v>
+        <v>-532.20709</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>61 [42-94]</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.76 [0.477-0.92]</t>
+          <t>0.78 [0.668-0.861]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.25 [0.042-0.714]</t>
+          <t>0.12 [0.063-0.221]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.1 [0.052-0.18]</t>
+          <t>0.03 [0.015-0.069]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65 [36-181]</t>
+          <t>712 [477-1117]</t>
         </is>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>89.86769930769231</v>
+        <v>274.4731243113773</v>
       </c>
       <c r="H4">
-        <v>2.821100826210824</v>
+        <v>2.739280000000008</v>
       </c>
       <c r="I4">
-        <v>0.08126157201169604</v>
+        <v>0.09760564621860626</v>
       </c>
       <c r="J4">
-        <v>-41.449073</v>
+        <v>-528.69978</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>58 [40-89]</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.7 [0.607-0.859]</t>
+          <t>0.92 [0.838-0.958]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.24 [0.088-0.516]</t>
+          <t>0.07 [0.04-0.122]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.1 [0.071-0.138]</t>
+          <t>0.03 [0.014-0.06]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>64 [39-137]</t>
+          <t>634 [450-934]</t>
         </is>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>109.4321176315789</v>
+        <v>274.6359228571428</v>
       </c>
       <c r="H5">
-        <v>22.38551915009747</v>
+        <v>2.902078545765562</v>
       </c>
       <c r="I5">
-        <v>4.586968520680744E-06</v>
+        <v>0.0899753792902651</v>
       </c>
       <c r="J5">
-        <v>-49.998015</v>
+        <v>-526.31628</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>68 [47-102]</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.76 [0.479-0.92]</t>
+          <t>0.95 [0.93-0.957]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.25 [0.04-0.724]</t>
+          <t>0.06 [0.037-0.104]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.1 [0.052-0.18]</t>
+          <t>0.04 [0.036-0.036]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>65 [36-180]</t>
+          <t>777 [522-1208]</t>
         </is>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>92.917738</v>
+        <v>275.3672800000001</v>
       </c>
       <c r="H6">
-        <v>5.871139518518518</v>
+        <v>3.633435688622797</v>
       </c>
       <c r="I6">
-        <v>0.01768388706520641</v>
+        <v>0.06241823735850541</v>
       </c>
       <c r="J6">
-        <v>-41.451341</v>
+        <v>-532.32778</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>62 [43-94]</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.85 [0.535-1]</t>
+          <t>0.94 [0.4-0]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.23 [0.05-0.494]</t>
+          <t>0.05 [1-0]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.07 [0.033-0.138]</t>
+          <t>0 [0-0]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>60 [38-124]</t>
+          <t>616 [616-616]</t>
         </is>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>112.9398762222222</v>
+        <v>275.4928543113772</v>
       </c>
       <c r="H7">
-        <v>25.89327774074073</v>
+        <v>3.759009999999989</v>
       </c>
       <c r="I7">
-        <v>7.94009429028247E-07</v>
+        <v>0.05861967214297935</v>
       </c>
       <c r="J7">
-        <v>-52.291426</v>
+        <v>-527.6800500000001</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>57 [40-87]</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.8 [0.601-0.915]</t>
+          <t>0.95 [0.939-0.958]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.18 [0.052-0.464]</t>
+          <t>0.07 [0.039-0.106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.07 [0.034-0.141]</t>
+          <t>0.05 [0.011-0.433]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78 [44-177]</t>
+          <t>726 [495-1113]</t>
         </is>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>87.1192323076923</v>
+        <v>275.8077012048192</v>
       </c>
       <c r="H8">
-        <v>0.0726338262108186</v>
+        <v>4.073856893441985</v>
       </c>
       <c r="I8">
-        <v>0.3211494964769983</v>
+        <v>0.0500812604710393</v>
       </c>
       <c r="J8">
-        <v>-44.19754</v>
+        <v>-529.61265</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>69 [48-103]</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.7 [0.486-0.985]</t>
+          <t>0.85 [0.728-0.915]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.24 [0.086-0.509]</t>
+          <t>0.07 [0.041-0.108]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.09 [0.059-0.138]</t>
+          <t>0.04 [0.027-0.089]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>63 [39-133]</t>
+          <t>670 [471-992]</t>
         </is>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>108.7790596315789</v>
+        <v>278.0846112048193</v>
       </c>
       <c r="H9">
-        <v>21.73246115009746</v>
+        <v>6.350766893442028</v>
       </c>
       <c r="I9">
-        <v>6.358219293604716E-06</v>
+        <v>0.01604170503333236</v>
       </c>
       <c r="J9">
-        <v>-50.651073</v>
+        <v>-527.33574</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>62 [43-93]</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.8 [0.598-0.915]</t>
+          <t>0.85 [0.734-0.908]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.18 [0.049-0.482]</t>
+          <t>0.07 [0.045-0.112]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.07 [0.034-0.147]</t>
+          <t>0.04 [0.029-0.058]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>77 [43-177]</t>
+          <t>683 [481-1011]</t>
         </is>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>90.13548400000001</v>
+        <v>278.8064443113772</v>
       </c>
       <c r="H10">
-        <v>3.088885518518524</v>
+        <v>7.072599999999966</v>
       </c>
       <c r="I10">
-        <v>0.07107821494683383</v>
+        <v>0.01118166454214482</v>
       </c>
       <c r="J10">
-        <v>-44.233596</v>
+        <v>-524.36646</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>58 [41-85]</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.7 [0.361-0.985]</t>
+          <t>0.86 [0.677-0.922]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.24 [0.081-0.526]</t>
+          <t>0.07 [0.045-0.116]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.09 [0.06-0.14]</t>
+          <t>0.05 [0.034-0.156]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>63 [39-133]</t>
+          <t>711 [495-1066]</t>
         </is>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>114.4929812222222</v>
+        <v>278.8148143113772</v>
       </c>
       <c r="H11">
-        <v>27.44638274074075</v>
+        <v>7.080969999999979</v>
       </c>
       <c r="I11">
-        <v>3.652356773294304E-07</v>
+        <v>0.01113496705867586</v>
       </c>
       <c r="J11">
-        <v>-50.738321</v>
+        <v>-524.3580899999999</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>75 [52-113]</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.8 [0.602-0.913]</t>
+          <t>0.9 [0.6-0]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.18 [0.049-0.488]</t>
+          <t>0.04 [1-0]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.07 [0.031-0.14]</t>
+          <t>0 [0-0]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78 [44-179]</t>
+          <t>562 [562-562]</t>
         </is>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>89.94076099999999</v>
+        <v>278.9150528571428</v>
       </c>
       <c r="H12">
-        <v>2.894162518518513</v>
+        <v>7.181208545765571</v>
       </c>
       <c r="I12">
-        <v>0.07834658564970837</v>
+        <v>0.01059064505495791</v>
       </c>
       <c r="J12">
-        <v>-44.428319</v>
+        <v>-522.03715</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>60 [42-92]</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.7 [0.31-0.746]</t>
+          <t>0.85 [0.745-0.911]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.26 [0.05-0.626]</t>
+          <t>0.07 [0.046-0.106]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.07 [0.029-0.16]</t>
+          <t>0.05 [0.033-0.123]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>62 [38-135]</t>
+          <t>695 [487-1032]</t>
         </is>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>112.1771802222222</v>
+        <v>279.2729628571428</v>
       </c>
       <c r="H13">
-        <v>25.13058174074075</v>
+        <v>7.539118545765575</v>
       </c>
       <c r="I13">
-        <v>1.162633926627651E-06</v>
+        <v>0.008855299288372455</v>
       </c>
       <c r="J13">
-        <v>-53.054122</v>
+        <v>-521.67924</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>52 [52-52]</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.8 [0.599-0.913]</t>
+          <t>0.9 [0.794-0.936]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.19 [0.046-0.505]</t>
+          <t>0.04 [0.028-0.069]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.07 [0.031-0.145]</t>
+          <t>0 [0-0.1]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78 [44-178]</t>
+          <t>562 [403-823]</t>
         </is>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>93.15929966666667</v>
+        <v>281.1350443113773</v>
       </c>
       <c r="H14">
-        <v>6.112701185185188</v>
+        <v>9.401200000000017</v>
       </c>
       <c r="I14">
-        <v>0.01567195887199801</v>
+        <v>0.00349025689485473</v>
       </c>
       <c r="J14">
-        <v>-44.516446</v>
+        <v>-522.03785</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>74 [51-111]</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.77 [0.425-0.997]</t>
+          <t>0.83 [0.758-0.881]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.24 [0.029-0.72]</t>
+          <t>0.07 [0.044-0.11]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.07 [0.022-0.209]</t>
+          <t>0.03 [0.022-0.134]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>63 [38-143]</t>
+          <t>713 [499-1059]</t>
         </is>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>118.4601333529412</v>
+        <v>282.4844928571428</v>
       </c>
       <c r="H15">
-        <v>31.41353487145969</v>
+        <v>10.75064854576556</v>
       </c>
       <c r="I15">
-        <v>5.02478003156237E-08</v>
+        <v>0.001777576766138115</v>
       </c>
       <c r="J15">
-        <v>-53.254829</v>
+        <v>-518.46771</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>59 [41-89]</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.83 [0.518-0.956]</t>
+          <t>0.95 [0.935-0.956]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.33 [0.023-0.653]</t>
+          <t>0.06 [0.037-0.099]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.12 [0.12-0.127]</t>
+          <t>0.04 [0.025-0.065]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>73 [40-188]</t>
+          <t>840 [555-1327]</t>
         </is>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>104.7037256315789</v>
+        <v>282.6734112048193</v>
       </c>
       <c r="H16">
-        <v>17.65712715009747</v>
+        <v>10.93956689344202</v>
       </c>
       <c r="I16">
-        <v>4.878463237258471E-05</v>
+        <v>0.001617354671294887</v>
       </c>
       <c r="J16">
-        <v>-54.726407</v>
+        <v>-522.74695</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>51 [51-51]</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.63 [0.548-0.74]</t>
+          <t>0.83 [0.757-0.878]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.41 [0.031-0.755]</t>
+          <t>0.09 [0.053-0.155]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.12 [0.119-0.127]</t>
+          <t>0.08 [0.043-0.172]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>62 [35-162]</t>
+          <t>699 [487-1047]</t>
         </is>
       </c>
       <c r="F17">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>160.9105593333333</v>
+        <v>284.0314018934911</v>
       </c>
       <c r="H17">
-        <v>73.86396085185186</v>
+        <v>12.29755758211388</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.0008202029669258829</v>
       </c>
       <c r="J17">
-        <v>-59.431854</v>
+        <v>-514.72637</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>76 [52-115]</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.76 [0.512-0.906]</t>
+          <t>0.83 [0.754-0.88]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.25 [0.053-0.673]</t>
+          <t>0.07 [0.043-0.114]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.1 [0.063-0.156]</t>
+          <t>0.03 [0.021-0.242]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>64 [36-166]</t>
+          <t>715 [500-1063]</t>
         </is>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>89.87052730769231</v>
+        <v>284.4148943113772</v>
       </c>
       <c r="H18">
-        <v>2.823928826210832</v>
+        <v>12.68104999999997</v>
       </c>
       <c r="I18">
-        <v>0.081146749347626</v>
+        <v>0.0006770909599877416</v>
       </c>
       <c r="J18">
-        <v>-41.446245</v>
+        <v>-518.75801</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>60 [42-90]</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.83 [0.539-0.875]</t>
+          <t>0.84 [0.655-0.917]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.24 [0.047-0.516]</t>
+          <t>0.08 [0.045-0.149]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.07 [0.032-0.141]</t>
+          <t>0.07 [0.035-0.197]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>60 [38-129]</t>
+          <t>675 [474-1005]</t>
         </is>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>107.2893546315789</v>
+        <v>284.4690343113772</v>
       </c>
       <c r="H19">
-        <v>20.24275615009746</v>
+        <v>12.73518999999999</v>
       </c>
       <c r="I19">
-        <v>1.339124121898431E-05</v>
+        <v>0.0006590079652663915</v>
       </c>
       <c r="J19">
-        <v>-52.140778</v>
+        <v>-518.7038700000001</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>57 [57-57]</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.71 [0.535-0.843]</t>
+          <t>0.82 [0.708-0.899]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.34 [0.11-0.69]</t>
+          <t>0.08 [0.043-0.151]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.12 [0.035-0.493]</t>
+          <t>0.07 [0.029-0.22]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>55 [34-131]</t>
+          <t>683 [478-1018]</t>
         </is>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>100.514298</v>
+        <v>284.7085043113772</v>
       </c>
       <c r="H20">
-        <v>13.46769951851851</v>
+        <v>12.97465999999997</v>
       </c>
       <c r="I20">
-        <v>0.0003962832243656278</v>
+        <v>0.0005846425421013672</v>
       </c>
       <c r="J20">
-        <v>-53.694782</v>
+        <v>-518.46439</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>76 [52-114]</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.69 [0.48-0.853]</t>
+          <t>0.83 [0.715-0.9]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.32 [0.122-0.623]</t>
+          <t>0.08 [0.046-0.15]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.12 [0.034-0.511]</t>
+          <t>0.07 [0.036-0.297]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>56 [35-123]</t>
+          <t>687 [480-1026]</t>
         </is>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>148.3504596153846</v>
+        <v>284.7444028571429</v>
       </c>
       <c r="H21">
-        <v>61.30386113390313</v>
+        <v>13.0105585457656</v>
       </c>
       <c r="I21">
-        <v>1.623735087407893E-14</v>
+        <v>0.0005742422516260308</v>
       </c>
       <c r="J21">
-        <v>-59.274005</v>
+        <v>-516.2078</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>60 [42-90]</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.73 [0.533-0.859]</t>
+          <t>0.84 [0.717-0.91]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.3 [0.071-0.719]</t>
+          <t>0.07 [0.036-0.127]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.12 [0.029-0.635]</t>
+          <t>0.06 [0.03-0.133]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>63 [35-186]</t>
+          <t>682 [478-1013]</t>
         </is>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>105.325859631579</v>
+        <v>284.7557928571428</v>
       </c>
       <c r="H22">
-        <v>18.27926115009747</v>
+        <v>13.02194854576555</v>
       </c>
       <c r="I22">
-        <v>3.574278222194166E-05</v>
+        <v>0.0005709812365571542</v>
       </c>
       <c r="J22">
-        <v>-54.104273</v>
+        <v>-516.19641</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>56 [56-56]</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.66 [0.347-0.735]</t>
+          <t>0.82 [0.754-0.877]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.31 [0.093-0.651]</t>
+          <t>0.09 [0.051-0.16]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.12 [0.033-0.328]</t>
+          <t>0.07 [0.04-0.157]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>60 [37-132]</t>
+          <t>699 [486-1049]</t>
         </is>
       </c>
       <c r="F23">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>160.8692983333333</v>
+        <v>284.8073328571429</v>
       </c>
       <c r="H23">
-        <v>73.82269985185187</v>
+        <v>13.0734885457656</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0005564550242242812</v>
       </c>
       <c r="J23">
-        <v>-59.473115</v>
+        <v>-516.14487</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>93 [63-141]</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.72 [0.535-0.857]</t>
+          <t>0.82 [0.755-0.874]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.3 [0.061-0.751]</t>
+          <t>0.09 [0.054-0.159]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.12 [0.028-0.513]</t>
+          <t>0.08 [0.043-0.168]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>63 [35-183]</t>
+          <t>707 [492-1059]</t>
         </is>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>111.0940512222222</v>
+        <v>284.8321828571428</v>
       </c>
       <c r="H24">
-        <v>24.04745274074074</v>
+        <v>13.09833854576556</v>
       </c>
       <c r="I24">
-        <v>1.99821155408167E-06</v>
+        <v>0.0005495838461399913</v>
       </c>
       <c r="J24">
-        <v>-54.137251</v>
+        <v>-516.12002</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>88 [51-162]</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.67 [0.291-0.873]</t>
+          <t>0.95 [0.933-0.964]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.32 [0.08-0.637]</t>
+          <t>0.06 [0.034-0.101]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.12 [0.028-0.51]</t>
+          <t>0.02 [0.004-0.076]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>80 [42-205]</t>
+          <t>641 [454-944]</t>
         </is>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>174.5819133636364</v>
+        <v>284.8413018934912</v>
       </c>
       <c r="H25">
-        <v>87.53531488215489</v>
+        <v>13.10745758211391</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0005470837126386654</v>
       </c>
       <c r="J25">
-        <v>-60.790803</v>
+        <v>-513.91648</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>77 [45-142]</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.72 [0.528-0.857]</t>
+          <t>0.82 [0.707-0.893]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.32 [0.076-0.745]</t>
+          <t>0.08 [0.043-0.156]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.12 [0.025-0.535]</t>
+          <t>0.06 [0.028-0.268]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>58 [34-147]</t>
+          <t>689 [482-1028]</t>
         </is>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>105.691611631579</v>
+        <v>285.0953812048193</v>
       </c>
       <c r="H26">
-        <v>18.64501315009747</v>
+        <v>13.36153689344201</v>
       </c>
       <c r="I26">
-        <v>2.976914197662823E-05</v>
+        <v>0.0004818159403404257</v>
       </c>
       <c r="J26">
-        <v>-53.738521</v>
+        <v>-520.32498</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>106 [57-213]</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.68 [0.472-0.853]</t>
+          <t>0.85 [0.637-0.926]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.36 [0.099-0.735]</t>
+          <t>0.07 [0.037-0.116]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.12 [0.028-0.516]</t>
+          <t>0.07 [0.035-0.129]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>54 [35-119]</t>
+          <t>655 [461-972]</t>
         </is>
       </c>
       <c r="F27">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>160.8222343333333</v>
+        <v>285.1121028571428</v>
       </c>
       <c r="H27">
-        <v>73.77563585185186</v>
+        <v>13.37825854576556</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.0004778043544758912</v>
       </c>
       <c r="J27">
-        <v>-59.520179</v>
+        <v>-515.8401</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>88 [51-162]</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.72 [0.514-0.863]</t>
+          <t>0.82 [0.751-0.872]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.31 [0.052-0.797]</t>
+          <t>0.09 [0.051-0.166]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.12 [0.021-0.695]</t>
+          <t>0.07 [0.038-0.16]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>62 [34-188]</t>
+          <t>706 [490-1060]</t>
         </is>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G28">
-        <v>111.1111282222222</v>
+        <v>285.2874243113773</v>
       </c>
       <c r="H28">
-        <v>24.06452974074074</v>
+        <v>13.55358000000001</v>
       </c>
       <c r="I28">
-        <v>1.981222458639957E-06</v>
+        <v>0.0004377030101308192</v>
       </c>
       <c r="J28">
-        <v>-54.120174</v>
+        <v>-517.88548</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>76 [46-134]</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.68 [0.468-0.978]</t>
+          <t>0.83 [0.708-0.906]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.36 [0.091-0.73]</t>
+          <t>0.07 [0.037-0.133]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.12 [0.031-0.566]</t>
+          <t>0.06 [0.029-0.131]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>57 [36-125]</t>
+          <t>682 [478-1015]</t>
         </is>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>175.3834563636364</v>
+        <v>285.4975143113772</v>
       </c>
       <c r="H29">
-        <v>88.33685788215487</v>
+        <v>13.76366999999999</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.0003940570206656865</v>
       </c>
       <c r="J29">
-        <v>-59.98926</v>
+        <v>-517.67539</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>70 [49-105]</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.72 [0.525-0.857]</t>
+          <t>0.82 [0.717-0.895]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.32 [0.067-0.775]</t>
+          <t>0.09 [0.047-0.153]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.12 [0.024-0.443]</t>
+          <t>0.07 [0.036-0.294]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>57 [34-148]</t>
+          <t>696 [486-1039]</t>
         </is>
       </c>
       <c r="F30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>111.4904902222222</v>
+        <v>285.5656143113773</v>
       </c>
       <c r="H30">
-        <v>24.44389174074075</v>
+        <v>13.83177000000001</v>
       </c>
       <c r="I30">
-        <v>1.63891273832972E-06</v>
+        <v>0.0003808652436395312</v>
       </c>
       <c r="J30">
-        <v>-53.740812</v>
+        <v>-517.60729</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>62 [43-94]</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.66 [0.421-0.992]</t>
+          <t>0.83 [0.717-0.904]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.46 [0.051-0.69]</t>
+          <t>0.07 [0.04-0.13]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.12 [0.03-0.447]</t>
+          <t>0.07 [0.042-0.126]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>133 [44-665]</t>
+          <t>681 [478-1010]</t>
         </is>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>172.5183543636364</v>
+        <v>285.6255418934912</v>
       </c>
       <c r="H31">
-        <v>85.47175588215489</v>
+        <v>13.89169758211392</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.0003696223579664537</v>
       </c>
       <c r="J31">
-        <v>-62.854361</v>
+        <v>-513.13224</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>58 [41-86]</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.72 [0.531-0.856]</t>
+          <t>0.82 [0.708-0.901]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.31 [0.063-0.742]</t>
+          <t>0.08 [0.041-0.137]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.12 [0.025-0.538]</t>
+          <t>0.07 [0.042-0.124]</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>63 [36-157]</t>
+          <t>680 [477-1009]</t>
         </is>
       </c>
       <c r="F32">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>117.5645023529412</v>
+        <v>286.9403228571429</v>
       </c>
       <c r="H32">
-        <v>30.51790387145969</v>
+        <v>15.20647854576561</v>
       </c>
       <c r="I32">
-        <v>7.863227756384226E-08</v>
+        <v>0.0001915389818435082</v>
       </c>
       <c r="J32">
-        <v>-54.15046</v>
+        <v>-514.01188</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>70 [49-105]</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.65 [0.417-0.867]</t>
+          <t>0.95 [0.4-0]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.46 [0.04-0.761]</t>
+          <t>0.05 [1-0]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.12 [0.028-0.338]</t>
+          <t>0 [0-0]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>132 [43-669]</t>
+          <t>622 [622-622]</t>
         </is>
       </c>
       <c r="F33">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>190.55124</v>
+        <v>287.0640228571428</v>
       </c>
       <c r="H33">
-        <v>103.5046415185185</v>
+        <v>15.33017854576559</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>0.0001800512168451556</v>
       </c>
       <c r="J33">
-        <v>-62.85784</v>
+        <v>-513.88818</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.78 [0.472-0.933]</t>
+          <t>0.86 [0.749-0.925]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.37 [0.128-0.851]</t>
+          <t>0.05 [0.029-0.086]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.12 [0.001-0.592]</t>
+          <t>0.02 [0.002-0.165]</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>88 [29-1164]</t>
+          <t>651 [452-981]</t>
         </is>
       </c>
       <c r="F34">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>161.2669543333333</v>
+        <v>287.2141718934911</v>
       </c>
       <c r="H34">
-        <v>74.22035585185185</v>
+        <v>15.48032758211389</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.0001670288964814634</v>
       </c>
       <c r="J34">
-        <v>-59.075459</v>
+        <v>-511.5436</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>62 [43-92]</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.62 [0.412-0.674]</t>
+          <t>0.85 [0.738-0.918]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.63 [0.424-0.794]</t>
+          <t>0.05 [0.03-0.093]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.12 [0.051-0.245]</t>
+          <t>0.02 [0.002-0.127]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>38 [28-91]</t>
+          <t>658 [459-987]</t>
         </is>
       </c>
       <c r="F35">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G35">
-        <v>386.937527</v>
+        <v>287.5842128571429</v>
       </c>
       <c r="H35">
-        <v>299.8909285185185</v>
+        <v>15.8503685457656</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.000138815588167017</v>
       </c>
       <c r="J35">
-        <v>-64.87155300000001</v>
+        <v>-513.36799</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>67 [46-100]</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.71 [0.535-0.844]</t>
+          <t>0.87 [0.699-0.941]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.34 [0.088-0.745]</t>
+          <t>0.05 [0.03-0.078]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.12 [0.033-0.547]</t>
+          <t>0.03 [0.007-0.108]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>55 [34-132]</t>
+          <t>629 [436-954]</t>
         </is>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G36">
-        <v>105.7353426315789</v>
+        <v>288.5505618934911</v>
       </c>
       <c r="H36">
-        <v>18.68874415009746</v>
+        <v>16.81671758211388</v>
       </c>
       <c r="I36">
-        <v>2.912528953250178E-05</v>
+        <v>8.562453194840419E-05</v>
       </c>
       <c r="J36">
-        <v>-53.69479</v>
+        <v>-510.20722</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>62 [43-92]</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.68 [0.422-0.872]</t>
+          <t>0.95 [0.855-0.967]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0.31 [0.096-0.571]</t>
+          <t>0.05 [0.03-0.079]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.12 [0.029-0.37]</t>
+          <t>0 [0-0.1]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>80 [42-208]</t>
+          <t>619 [439-913]</t>
         </is>
       </c>
       <c r="F37">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G37">
-        <v>159.5733643333333</v>
+        <v>289.2980643113772</v>
       </c>
       <c r="H37">
-        <v>72.52676585185185</v>
+        <v>17.56421999999998</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>5.892235859913179E-05</v>
       </c>
       <c r="J37">
-        <v>-60.769049</v>
+        <v>-513.87483</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>60 [42-88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.85 [0.779-0.905]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.08 [0.04-0.135]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07 [0.043-0.116]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>758 [524-1140]</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>289.3234318934911</v>
+      </c>
+      <c r="H38">
+        <v>17.58958758211389</v>
+      </c>
+      <c r="I38">
+        <v>5.817971941042734E-05</v>
+      </c>
+      <c r="J38">
+        <v>-509.43435</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>67 [47-101]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.9 [0.8-0]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.04 [1-0]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>570 [570-570]</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>290.3218518934912</v>
+      </c>
+      <c r="H39">
+        <v>18.5880075821139</v>
+      </c>
+      <c r="I39">
+        <v>3.531567195939614E-05</v>
+      </c>
+      <c r="J39">
+        <v>-508.43592</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>62 [43-92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0.82 [0.684-0.896]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.09 [0.04-0.185]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0 [0-0.175]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>851 [498-1565]</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>290.3721318934911</v>
+      </c>
+      <c r="H40">
+        <v>18.63828758211389</v>
+      </c>
+      <c r="I40">
+        <v>3.443890312798542E-05</v>
+      </c>
+      <c r="J40">
+        <v>-508.38565</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>60 [43-88]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.85 [0.778-0.904]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.08 [0.04-0.139]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.07 [0.041-0.116]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>765 [527-1155]</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>290.4219828571428</v>
+      </c>
+      <c r="H41">
+        <v>18.68813854576558</v>
+      </c>
+      <c r="I41">
+        <v>3.359110663477926E-05</v>
+      </c>
+      <c r="J41">
+        <v>-510.53022</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>72 [50-109]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.79 [0.692-0.866]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.1 [0.045-0.196]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0 [0-0.051]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>968 [560-1786]</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>290.4754276470588</v>
+      </c>
+      <c r="H42">
+        <v>18.74158333568158</v>
+      </c>
+      <c r="I42">
+        <v>3.27053591707159E-05</v>
+      </c>
+      <c r="J42">
+        <v>-506.11375</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.85 [0.777-0.903]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.08 [0.043-0.136]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.07 [0.05-0.116]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>736 [511-1104]</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>290.4858476470588</v>
+      </c>
+      <c r="H43">
+        <v>18.75200333568159</v>
+      </c>
+      <c r="I43">
+        <v>3.253540735833978E-05</v>
+      </c>
+      <c r="J43">
+        <v>-506.10333</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>61 [42-94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.78 [0.619-0.863]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.16 [0.049-0.296]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05 [0.017-0.136]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>771 [494-1271]</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>291.4996143113772</v>
+      </c>
+      <c r="H44">
+        <v>19.76576999999997</v>
+      </c>
+      <c r="I44">
+        <v>1.959835474885785E-05</v>
+      </c>
+      <c r="J44">
+        <v>-511.67329</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>69 [48-104]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.79 [0.651-0.885]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.1 [0.038-0.231]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04 [0.007-0.161]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>869 [523-1537]</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>291.5251018934911</v>
+      </c>
+      <c r="H45">
+        <v>19.79125758211387</v>
+      </c>
+      <c r="I45">
+        <v>1.935018209975275E-05</v>
+      </c>
+      <c r="J45">
+        <v>-507.23267</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>62 [43-92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.8 [0.654-0.882]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.12 [0.04-0.252]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0 [0-0.263]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>835 [507-1470]</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>291.6295928571428</v>
+      </c>
+      <c r="H46">
+        <v>19.89574854576557</v>
+      </c>
+      <c r="I46">
+        <v>1.836517757523836E-05</v>
+      </c>
+      <c r="J46">
+        <v>-509.32261</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>51 [37-75]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.8 [0.656-0.889]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.1 [0.04-0.22]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03 [0.003-0.186]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>815 [498-1426]</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>291.6332528571428</v>
+      </c>
+      <c r="H47">
+        <v>19.8994085457656</v>
+      </c>
+      <c r="I47">
+        <v>1.833160003309716E-05</v>
+      </c>
+      <c r="J47">
+        <v>-509.31895</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>73 [50-110]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.85 [0.777-0.902]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.08 [0.043-0.14]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07 [0.05-0.116]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>739 [512-1110]</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>292.1202018934911</v>
+      </c>
+      <c r="H48">
+        <v>20.38635758211387</v>
+      </c>
+      <c r="I48">
+        <v>1.437013120129287E-05</v>
+      </c>
+      <c r="J48">
+        <v>-506.63757</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>65 [45-97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.84 [0.723-0.917]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.07 [0.036-0.121]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06 [0.03-0.145]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>707 [494-1053]</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>292.1783876470589</v>
+      </c>
+      <c r="H49">
+        <v>20.4445433356816</v>
+      </c>
+      <c r="I49">
+        <v>1.395808560317769E-05</v>
+      </c>
+      <c r="J49">
+        <v>-504.41079</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>56 [40-83]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.85 [0.724-0.925]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.06 [0.032-0.117]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05 [0.016-0.18]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>707 [492-1060]</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>292.4531218934911</v>
+      </c>
+      <c r="H50">
+        <v>20.71927758211388</v>
+      </c>
+      <c r="I50">
+        <v>1.216656761034171E-05</v>
+      </c>
+      <c r="J50">
+        <v>-506.30466</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>70 [48-105]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.87 [0.762-0.937]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.05 [0.028-0.082]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.01 [0-0.512]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>663 [458-1009]</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>292.5205676470588</v>
+      </c>
+      <c r="H51">
+        <v>20.78672333568159</v>
+      </c>
+      <c r="I51">
+        <v>1.176311694255499E-05</v>
+      </c>
+      <c r="J51">
+        <v>-504.06861</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>62 [43-92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.79 [0.669-0.876]</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.1 [0.038-0.231]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0 [0-0.061]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>966 [560-1777]</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>292.6249218934911</v>
+      </c>
+      <c r="H52">
+        <v>20.89107758211389</v>
+      </c>
+      <c r="I52">
+        <v>1.11650887060464E-05</v>
+      </c>
+      <c r="J52">
+        <v>-506.13286</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>58 [41-86]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0.77 [0.641-0.87]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.13 [0.042-0.269]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.05 [0.019-0.141]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>826 [512-1414]</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>292.7317228571428</v>
+      </c>
+      <c r="H53">
+        <v>20.99787854576556</v>
+      </c>
+      <c r="I53">
+        <v>1.058450721471629E-05</v>
+      </c>
+      <c r="J53">
+        <v>-508.22048</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>80 [47-147]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0.86 [0.689-0.929]</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.06 [0.035-0.117]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.06 [0.026-0.141]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>681 [475-1017]</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>293.0105718934911</v>
+      </c>
+      <c r="H54">
+        <v>21.27672758211389</v>
+      </c>
+      <c r="I54">
+        <v>9.207025466281654E-06</v>
+      </c>
+      <c r="J54">
+        <v>-505.74721</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>79 [48-140]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0.86 [0.54-0.939]</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.06 [0.033-0.116]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05 [0.018-0.152]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>659 [459-990]</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>293.5443728571428</v>
+      </c>
+      <c r="H55">
+        <v>21.81052854576558</v>
+      </c>
+      <c r="I55">
+        <v>7.050273063219025E-06</v>
+      </c>
+      <c r="J55">
+        <v>-507.40783</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>74 [45-130]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0.79 [0.65-0.89]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.1 [0.035-0.229]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04 [0.004-0.314]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>892 [518-1650]</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>293.6260828571428</v>
+      </c>
+      <c r="H56">
+        <v>21.89223854576557</v>
+      </c>
+      <c r="I56">
+        <v>6.768038754637819E-06</v>
+      </c>
+      <c r="J56">
+        <v>-507.32612</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>87 [48-168]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.77 [0.602-0.864]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.16 [0.048-0.31]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.05 [0.009-0.248]</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>762 [491-1251]</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>293.6904512048193</v>
+      </c>
+      <c r="H57">
+        <v>21.95660689344203</v>
+      </c>
+      <c r="I57">
+        <v>6.553682953532421E-06</v>
+      </c>
+      <c r="J57">
+        <v>-511.72991</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>75 [47-129]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0.85 [0.742-0.922]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.05 [0.03-0.087]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03 [0.008-0.111]</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>679 [468-1031]</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>293.7127476470588</v>
+      </c>
+      <c r="H58">
+        <v>21.97890333568159</v>
+      </c>
+      <c r="I58">
+        <v>6.481026792781613E-06</v>
+      </c>
+      <c r="J58">
+        <v>-502.87643</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>70 [45-116]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0.84 [0.72-0.916]</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.07 [0.035-0.125]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06 [0.029-0.145]</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>708 [494-1056]</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>293.9077118934911</v>
+      </c>
+      <c r="H59">
+        <v>22.17386758211387</v>
+      </c>
+      <c r="I59">
+        <v>5.879059677157837E-06</v>
+      </c>
+      <c r="J59">
+        <v>-504.85006</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>71 [49-106]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0.86 [0.649-0.937]</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.06 [0.029-0.116]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05 [0.011-0.193]</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>676 [464-1034]</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <v>294.0425428571428</v>
+      </c>
+      <c r="H60">
+        <v>22.30869854576559</v>
+      </c>
+      <c r="I60">
+        <v>5.495784525440368E-06</v>
+      </c>
+      <c r="J60">
+        <v>-506.90966</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0.85 [0.721-0.924]</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.06 [0.031-0.12]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.05 [0.015-0.182]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>710 [494-1064]</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <v>294.0865128571428</v>
+      </c>
+      <c r="H61">
+        <v>22.3526685457656</v>
+      </c>
+      <c r="I61">
+        <v>5.376278189525598E-06</v>
+      </c>
+      <c r="J61">
+        <v>-506.86569</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>60 [42-90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0.88 [0.817-0.927]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.05 [0.029-0.071]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>656 [457-987]</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>294.1669518934912</v>
+      </c>
+      <c r="H62">
+        <v>22.43310758211391</v>
+      </c>
+      <c r="I62">
+        <v>5.164337516059679E-06</v>
+      </c>
+      <c r="J62">
+        <v>-504.59083</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>67 [46-102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0.84 [0.707-0.916]</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.07 [0.036-0.133]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.06 [0.023-0.22]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>706 [493-1053]</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <v>294.1767918934912</v>
+      </c>
+      <c r="H63">
+        <v>22.4429475821139</v>
+      </c>
+      <c r="I63">
+        <v>5.138991378108242E-06</v>
+      </c>
+      <c r="J63">
+        <v>-504.58099</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.78 [0.64-0.872]</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.12 [0.039-0.274]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.05 [0.009-0.304]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>849 [503-1538]</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>294.8890043113772</v>
+      </c>
+      <c r="H64">
+        <v>23.15515999999997</v>
+      </c>
+      <c r="I64">
+        <v>3.599340453543057E-06</v>
+      </c>
+      <c r="J64">
+        <v>-508.28389</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>63 [44-94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0.86 [0.782-0.912]</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.07 [0.039-0.124]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.07 [0.041-0.123]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>775 [537-1160]</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>294.9622271929825</v>
+      </c>
+      <c r="H65">
+        <v>23.22838288160523</v>
+      </c>
+      <c r="I65">
+        <v>3.469946515799674E-06</v>
+      </c>
+      <c r="J65">
+        <v>-499.48371</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>64 [44-95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0.87 [0.669-0.941]</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.05 [0.029-0.083]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02 [0.003-0.154]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>640 [440-979]</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>294.9773376470588</v>
+      </c>
+      <c r="H66">
+        <v>23.24349333568159</v>
+      </c>
+      <c r="I66">
+        <v>3.44382906792169E-06</v>
+      </c>
+      <c r="J66">
+        <v>-501.61184</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>62 [44-93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.84 [0.734-0.917]</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.05 [0.03-0.092]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03 [0.009-0.104]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>682 [472-1028]</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>295.0537018934912</v>
+      </c>
+      <c r="H67">
+        <v>23.31985758211391</v>
+      </c>
+      <c r="I67">
+        <v>3.314815050149916E-06</v>
+      </c>
+      <c r="J67">
+        <v>-503.70407</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>61 [43-91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0.86 [0.761-0.927]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.06 [0.025-0.138]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0 [0-0.82]</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1166 [622-2342]</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>295.0603476470588</v>
+      </c>
+      <c r="H68">
+        <v>23.32650333568159</v>
+      </c>
+      <c r="I68">
+        <v>3.303818608205974E-06</v>
+      </c>
+      <c r="J68">
+        <v>-501.52883</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.84 [0.759-0.898]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.08 [0.044-0.139]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.07 [0.036-0.153]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>741 [511-1118]</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>295.1019776470588</v>
+      </c>
+      <c r="H69">
+        <v>23.36813333568159</v>
+      </c>
+      <c r="I69">
+        <v>3.235760396957673E-06</v>
+      </c>
+      <c r="J69">
+        <v>-501.48719</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>63 [44-94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0.86 [0.786-0.916]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.07 [0.036-0.121]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.06 [0.033-0.129]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>795 [549-1194]</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>295.1930376470588</v>
+      </c>
+      <c r="H70">
+        <v>23.45919333568156</v>
+      </c>
+      <c r="I70">
+        <v>3.091739734935766E-06</v>
+      </c>
+      <c r="J70">
+        <v>-501.39614</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>66 [45-101]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.85 [0.737-0.921]</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.07 [0.027-0.167]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.04 [0.009-0.257]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>953 [530-1848]</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71">
+        <v>295.9193618934912</v>
+      </c>
+      <c r="H71">
+        <v>24.1855175821139</v>
+      </c>
+      <c r="I71">
+        <v>2.150223586108443E-06</v>
+      </c>
+      <c r="J71">
+        <v>-502.83842</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>69 [47-104]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.84 [0.761-0.902]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0.08 [0.041-0.139]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.06 [0.029-0.152]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>755 [519-1144]</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72">
+        <v>295.9323418934911</v>
+      </c>
+      <c r="H72">
+        <v>24.19849758211387</v>
+      </c>
+      <c r="I72">
+        <v>2.136313821045617E-06</v>
+      </c>
+      <c r="J72">
+        <v>-502.82544</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>65 [45-96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.84 [0.705-0.916]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0.07 [0.036-0.135]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.06 [0.022-0.239]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>708 [494-1056]</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73">
+        <v>295.9623928571428</v>
+      </c>
+      <c r="H73">
+        <v>24.22854854576559</v>
+      </c>
+      <c r="I73">
+        <v>2.104454625821533E-06</v>
+      </c>
+      <c r="J73">
+        <v>-504.98981</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>62 [44-92]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.86 [0.755-0.931]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.05 [0.029-0.082]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02 [0.003-0.153]</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>675 [464-1029]</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>296.2407071929825</v>
+      </c>
+      <c r="H74">
+        <v>24.50686288160523</v>
+      </c>
+      <c r="I74">
+        <v>1.831067592307512E-06</v>
+      </c>
+      <c r="J74">
+        <v>-498.20523</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>64 [44-95]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0.84 [0.736-0.906]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.08 [0.033-0.191]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.06 [0.034-0.143]</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>882 [515-1620]</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>296.6220776470588</v>
+      </c>
+      <c r="H75">
+        <v>24.88823333568155</v>
+      </c>
+      <c r="I75">
+        <v>1.513180842571757E-06</v>
+      </c>
+      <c r="J75">
+        <v>-499.9671</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>62 [43-93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0.86 [0.782-0.911]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.07 [0.039-0.126]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.07 [0.041-0.123]</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>779 [539-1168]</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>296.8225076470588</v>
+      </c>
+      <c r="H76">
+        <v>25.08866333568159</v>
+      </c>
+      <c r="I76">
+        <v>1.368888303988023E-06</v>
+      </c>
+      <c r="J76">
+        <v>-499.76667</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>61 [43-90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0.86 [0.787-0.916]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.07 [0.035-0.123]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.06 [0.031-0.131]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>802 [553-1205]</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>296.9414418934912</v>
+      </c>
+      <c r="H77">
+        <v>25.20759758211392</v>
+      </c>
+      <c r="I77">
+        <v>1.289857607207593E-06</v>
+      </c>
+      <c r="J77">
+        <v>-501.81634</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>69 [47-105]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0.84 [0.759-0.898]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0.08 [0.043-0.142]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.07 [0.035-0.157]</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>745 [513-1126]</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78">
+        <v>296.9628518934912</v>
+      </c>
+      <c r="H78">
+        <v>25.22900758211392</v>
+      </c>
+      <c r="I78">
+        <v>1.276123325424414E-06</v>
+      </c>
+      <c r="J78">
+        <v>-501.79493</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>65 [45-97]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0.83 [0.731-0.9]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.08 [0.035-0.193]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.07 [0.03-0.172]</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>785 [483-1364]</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <v>297.1405318934911</v>
+      </c>
+      <c r="H79">
+        <v>25.40668758211388</v>
+      </c>
+      <c r="I79">
+        <v>1.16764258346799E-06</v>
+      </c>
+      <c r="J79">
+        <v>-501.61725</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>76 [50-121]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0.84 [0.761-0.902]</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0.08 [0.04-0.141]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.06 [0.027-0.155]</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>761 [522-1154]</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80">
+        <v>297.7330928571428</v>
+      </c>
+      <c r="H80">
+        <v>25.99924854576557</v>
+      </c>
+      <c r="I80">
+        <v>8.682343159030933E-07</v>
+      </c>
+      <c r="J80">
+        <v>-503.2191</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0.86 [0.749-0.928]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0.05 [0.029-0.087]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02 [0.003-0.137]</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>680 [470-1030]</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>297.8213376470588</v>
+      </c>
+      <c r="H81">
+        <v>26.08749333568159</v>
+      </c>
+      <c r="I81">
+        <v>8.307585777332771E-07</v>
+      </c>
+      <c r="J81">
+        <v>-498.76784</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>63 [44-93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0.85 [0.728-0.924]</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.07 [0.026-0.18]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04 [0.005-0.425]</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>948 [490-2029]</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>8</v>
+      </c>
+      <c r="G82">
+        <v>298.1131628571428</v>
+      </c>
+      <c r="H82">
+        <v>26.37931854576556</v>
+      </c>
+      <c r="I82">
+        <v>7.179691685784721E-07</v>
+      </c>
+      <c r="J82">
+        <v>-502.83903</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>71 [47-110]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0.92 [0.893-0.94]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0.04 [0.028-0.068]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>812 [560-1220]</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83">
+        <v>299.7600076470588</v>
+      </c>
+      <c r="H83">
+        <v>28.02616333568159</v>
+      </c>
+      <c r="I83">
+        <v>3.151359813401188E-07</v>
+      </c>
+      <c r="J83">
+        <v>-496.82917</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>71 [44-124]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0.92 [0.888-0.936]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0.04 [0.028-0.072]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>832 [572-1253]</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84">
+        <v>299.8737618934912</v>
+      </c>
+      <c r="H84">
+        <v>28.13991758211392</v>
+      </c>
+      <c r="I84">
+        <v>2.977121586830004E-07</v>
+      </c>
+      <c r="J84">
+        <v>-498.88402</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>81 [47-150]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0.92 [0.892-0.938]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0.04 [0.028-0.067]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>826 [569-1240]</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <v>301.6237471929825</v>
+      </c>
+      <c r="H85">
+        <v>29.88990288160522</v>
+      </c>
+      <c r="I85">
+        <v>1.241058039573171E-07</v>
+      </c>
+      <c r="J85">
+        <v>-492.82219</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>65 [43-102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0.92 [0.889-0.936]</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0.04 [0.028-0.07]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>839 [577-1263]</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>6</v>
+      </c>
+      <c r="G86">
+        <v>302.6632876470588</v>
+      </c>
+      <c r="H86">
+        <v>30.92944333568158</v>
+      </c>
+      <c r="I86">
+        <v>7.380040596482806E-08</v>
+      </c>
+      <c r="J86">
+        <v>-493.92589</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>86 [45-184]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0.93 [0.908-0.949]</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0.04 [0.027-0.06]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>766 [533-1142]</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>308.6874181395349</v>
+      </c>
+      <c r="H87">
+        <v>36.95357382815763</v>
+      </c>
+      <c r="I87">
+        <v>3.630240814763934E-09</v>
+      </c>
+      <c r="J87">
+        <v>-483.6402</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>77 [46-140]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0.93 [0.91-0.953]</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0.04 [0.026-0.06]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>748 [521-1117]</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>309.3177771929825</v>
+      </c>
+      <c r="H88">
+        <v>37.58393288160522</v>
+      </c>
+      <c r="I88">
+        <v>2.648833778393736E-09</v>
+      </c>
+      <c r="J88">
+        <v>-485.12816</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>69 [45-114]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0.93 [0.905-0.947]</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.04 [0.027-0.063]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0 [0-0]</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>775 [538-1159]</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>310.0744971929824</v>
+      </c>
+      <c r="H89">
+        <v>38.34065288160519</v>
+      </c>
+      <c r="I89">
+        <v>1.814408391540705E-09</v>
+      </c>
+      <c r="J89">
+        <v>-484.37144</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>68 [47-102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0.93 [0.907-0.951]</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0.04 [0.026-0.063]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0 [0-1]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>757 [526-1132]</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <v>310.5573376470588</v>
+      </c>
+      <c r="H90">
+        <v>38.82349333568158</v>
+      </c>
+      <c r="I90">
+        <v>1.425238591689294E-09</v>
+      </c>
+      <c r="J90">
+        <v>-486.03183</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0.91 [0.779-0.969]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0.07 [0.037-0.125]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.09 [0.083-0.098]</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1018 [689-1551]</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>310.9610571929825</v>
+      </c>
+      <c r="H91">
+        <v>39.22721288160523</v>
+      </c>
+      <c r="I91">
+        <v>1.164718537956986E-09</v>
+      </c>
+      <c r="J91">
+        <v>-483.48488</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>65 [45-97]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/population_models/models_summary_kriegberg.xlsx
+++ b/data/population_models/models_summary_kriegberg.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,50 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Phi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>npar</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AICc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DeltaAICc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deviance</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ind_per_ha</t>
         </is>
@@ -420,44 +425,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>0.94 [0.832-0.956]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.08 [0.043-0.126]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>0.06 [0.028-0.105]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>661 [468-971]</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>271.7338443113773</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.3839741921345565</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-531.43906</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>70 [48-104]</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>60 [43-88]</t>
         </is>
       </c>
     </row>
@@ -467,44 +475,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>51</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0.92 [0.841-0.96]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.07 [0.039-0.131]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.05 [0.02-0.118]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>643 [454-951]</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>273.2132712048193</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.479426893441996</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1832519341880248</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-532.20709</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>61 [42-94]</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>58 [41-86]</t>
         </is>
       </c>
     </row>
@@ -514,44 +525,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>84</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>0.78 [0.668-0.861]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.12 [0.063-0.221]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.03 [0.015-0.069]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>712 [477-1117]</t>
         </is>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>274.4731243113773</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.739280000000008</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.09760564621860626</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-528.69978</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>58 [40-89]</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>65 [43-102]</t>
         </is>
       </c>
     </row>
@@ -561,44 +575,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>0.92 [0.838-0.958]</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0.07 [0.04-0.122]</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>0.03 [0.014-0.06]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>634 [450-934]</t>
         </is>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>274.6359228571428</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.902078545765562</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.0899753792902651</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-526.31628</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>68 [47-102]</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>58 [41-85]</t>
         </is>
       </c>
     </row>
@@ -608,44 +625,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6">
+        <v>81</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>0.95 [0.93-0.957]</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.06 [0.037-0.104]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0.04 [0.036-0.036]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>777 [522-1208]</t>
         </is>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>275.3672800000001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.633435688622797</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.06241823735850541</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-532.32778</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>62 [43-94]</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>71 [47-110]</t>
         </is>
       </c>
     </row>
@@ -655,44 +675,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>0.94 [0.4-0]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0.05 [1-0]</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>616 [616-616]</t>
         </is>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>275.4928543113772</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.759009999999989</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.05861967214297935</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-527.6800500000001</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>57 [40-87]</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>56 [56-56]</t>
         </is>
       </c>
     </row>
@@ -702,44 +725,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8">
+        <v>69</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>0.95 [0.939-0.958]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>0.07 [0.039-0.106]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>0.05 [0.011-0.433]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>726 [495-1113]</t>
         </is>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>275.8077012048192</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.073856893441985</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.0500812604710393</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-529.61265</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>69 [48-103]</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>66 [45-101]</t>
         </is>
       </c>
     </row>
@@ -749,44 +775,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>0.85 [0.728-0.915]</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0.07 [0.041-0.108]</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>0.04 [0.027-0.089]</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>670 [471-992]</t>
         </is>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>278.0846112048193</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6.350766893442028</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.01604170503333236</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-527.33574</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>62 [43-93]</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>61 [43-90]</t>
         </is>
       </c>
     </row>
@@ -796,44 +825,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10">
+        <v>72</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>0.85 [0.734-0.908]</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>0.07 [0.045-0.112]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>0.04 [0.029-0.058]</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>683 [481-1011]</t>
         </is>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>278.8064443113772</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>7.072599999999966</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.01118166454214482</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-524.36646</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>58 [41-85]</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>62 [44-92]</t>
         </is>
       </c>
     </row>
@@ -843,44 +875,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>0.86 [0.677-0.922]</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0.07 [0.045-0.116]</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>0.05 [0.034-0.156]</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>711 [495-1066]</t>
         </is>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>9</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>278.8148143113772</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>7.080969999999979</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.01113496705867586</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-524.3580899999999</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>75 [52-113]</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>65 [45-97]</t>
         </is>
       </c>
     </row>
@@ -890,44 +925,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>0.9 [0.6-0]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>0.04 [1-0]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>562 [562-562]</t>
         </is>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>278.9150528571428</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>7.181208545765571</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.01059064505495791</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-522.03715</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>60 [42-92]</t>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>51 [51-51]</t>
         </is>
       </c>
     </row>
@@ -937,44 +975,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13">
+        <v>63</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>0.85 [0.745-0.911]</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>0.07 [0.046-0.106]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>0.05 [0.033-0.123]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>695 [487-1032]</t>
         </is>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>8</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>279.2729628571428</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7.539118545765575</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.008855299288372455</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-521.67924</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>52 [52-52]</t>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>63 [44-94]</t>
         </is>
       </c>
     </row>
@@ -984,44 +1025,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14">
+        <v>45</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>0.9 [0.794-0.936]</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.069]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>0 [0-0.1]</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>562 [403-823]</t>
         </is>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>281.1350443113773</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>9.401200000000017</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.00349025689485473</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-522.03785</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>74 [51-111]</t>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>51 [37-75]</t>
         </is>
       </c>
     </row>
@@ -1031,44 +1075,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15">
+        <v>71</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>0.83 [0.758-0.881]</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>0.07 [0.044-0.11]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.03 [0.022-0.134]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>713 [499-1059]</t>
         </is>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>8</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>282.4844928571428</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>10.75064854576556</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.001777576766138115</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-518.46771</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>59 [41-89]</t>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>65 [45-96]</t>
         </is>
       </c>
     </row>
@@ -1078,44 +1125,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16">
+        <v>78</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>0.95 [0.935-0.956]</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>0.06 [0.037-0.099]</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0.04 [0.025-0.065]</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>840 [555-1327]</t>
         </is>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>10</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>282.6734112048193</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>10.93956689344202</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.001617354671294887</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-522.74695</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>51 [51-51]</t>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>76 [50-121]</t>
         </is>
       </c>
     </row>
@@ -1125,44 +1175,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17">
+        <v>64</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>0.83 [0.757-0.878]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>0.09 [0.053-0.155]</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.08 [0.043-0.172]</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>699 [487-1047]</t>
         </is>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>7</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>284.0314018934911</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>12.29755758211388</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.0008202029669258829</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-514.72637</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>76 [52-115]</t>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>64 [44-95]</t>
         </is>
       </c>
     </row>
@@ -1172,44 +1225,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18">
+        <v>77</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>0.83 [0.754-0.88]</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>0.07 [0.043-0.114]</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>0.03 [0.021-0.242]</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>715 [500-1063]</t>
         </is>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>284.4148943113772</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>12.68104999999997</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.0006770909599877416</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-518.75801</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>60 [42-90]</t>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>65 [45-97]</t>
         </is>
       </c>
     </row>
@@ -1219,44 +1275,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19">
+        <v>66</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>0.84 [0.655-0.917]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>0.08 [0.045-0.149]</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>0.07 [0.035-0.197]</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>675 [474-1005]</t>
         </is>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>284.4690343113772</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>12.73518999999999</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.0006590079652663915</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-518.7038700000001</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>57 [57-57]</t>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>61 [43-91]</t>
         </is>
       </c>
     </row>
@@ -1266,44 +1325,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20">
+        <v>74</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>0.82 [0.708-0.899]</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>0.08 [0.043-0.151]</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>0.07 [0.029-0.22]</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>683 [478-1018]</t>
         </is>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>284.7085043113772</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>12.97465999999997</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.0005846425421013672</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-518.46439</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>76 [52-114]</t>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>62 [43-93]</t>
         </is>
       </c>
     </row>
@@ -1313,44 +1375,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21">
+        <v>65</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>0.83 [0.715-0.9]</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>0.08 [0.046-0.15]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>0.07 [0.036-0.297]</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>687 [480-1026]</t>
         </is>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>8</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>284.7444028571429</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>13.0105585457656</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.0005742422516260308</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-516.2078</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>60 [42-90]</t>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>62 [44-93]</t>
         </is>
       </c>
     </row>
@@ -1360,44 +1425,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22">
+        <v>44</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>0.84 [0.717-0.91]</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>0.07 [0.036-0.127]</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>0.06 [0.03-0.133]</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>682 [478-1013]</t>
         </is>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>8</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>284.7557928571428</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>13.02194854576555</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.0005709812365571542</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-516.19641</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>56 [56-56]</t>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>62 [43-92]</t>
         </is>
       </c>
     </row>
@@ -1407,44 +1475,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23">
+        <v>73</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>0.82 [0.754-0.877]</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>0.09 [0.051-0.16]</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>0.07 [0.04-0.157]</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>699 [486-1049]</t>
         </is>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>8</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>284.8073328571429</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>13.0734885457656</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.0005564550242242812</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-516.14487</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>93 [63-141]</t>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>64 [44-95]</t>
         </is>
       </c>
     </row>
@@ -1454,44 +1525,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24">
+        <v>67</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>0.82 [0.755-0.874]</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>0.09 [0.054-0.159]</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>0.08 [0.043-0.168]</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>707 [492-1059]</t>
         </is>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>284.8321828571428</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>13.09833854576556</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.0005495838461399913</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-516.12002</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>88 [51-162]</t>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
         </is>
       </c>
     </row>
@@ -1501,44 +1575,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>0.95 [0.933-0.964]</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>0.06 [0.034-0.101]</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>0.02 [0.004-0.076]</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>641 [454-944]</t>
         </is>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>7</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>284.8413018934912</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>13.10745758211391</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.0005470837126386654</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-513.91648</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>77 [45-142]</t>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>58 [41-86]</t>
         </is>
       </c>
     </row>
@@ -1548,44 +1625,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26">
+        <v>80</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>0.82 [0.707-0.893]</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0.08 [0.043-0.156]</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>0.06 [0.028-0.268]</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>689 [482-1028]</t>
         </is>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>10</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>285.0953812048193</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>13.36153689344201</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.0004818159403404257</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-520.32498</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>106 [57-213]</t>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>63 [44-93]</t>
         </is>
       </c>
     </row>
@@ -1595,44 +1675,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27">
+        <v>36</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>0.85 [0.637-0.926]</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>0.07 [0.037-0.116]</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>0.07 [0.035-0.129]</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>655 [461-972]</t>
         </is>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>8</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>285.1121028571428</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>13.37825854576556</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.0004778043544758912</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-515.8401</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>88 [51-162]</t>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>60 [42-88]</t>
         </is>
       </c>
     </row>
@@ -1642,44 +1725,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28">
+        <v>79</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>0.82 [0.751-0.872]</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>0.09 [0.051-0.166]</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>0.07 [0.038-0.16]</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>706 [490-1060]</t>
         </is>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>9</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>285.2874243113773</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>13.55358000000001</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.0004377030101308192</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-517.88548</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>76 [46-134]</t>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
         </is>
       </c>
     </row>
@@ -1689,44 +1775,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>0.83 [0.708-0.906]</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0.07 [0.037-0.133]</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>0.06 [0.029-0.131]</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>682 [478-1015]</t>
         </is>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>9</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>285.4975143113772</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>13.76366999999999</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.0003940570206656865</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-517.67539</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>70 [49-105]</t>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>62 [43-92]</t>
         </is>
       </c>
     </row>
@@ -1736,44 +1825,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30">
+        <v>68</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>0.82 [0.717-0.895]</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>0.09 [0.047-0.153]</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0.07 [0.036-0.294]</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>696 [486-1039]</t>
         </is>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>9</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>285.5656143113773</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>13.83177000000001</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.0003808652436395312</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-517.60729</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>62 [43-94]</t>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>63 [44-94]</t>
         </is>
       </c>
     </row>
@@ -1783,44 +1875,47 @@
           <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31">
+        <v>35</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>0.83 [0.717-0.904]</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>0.07 [0.04-0.13]</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>0.07 [0.042-0.126]</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>681 [478-1010]</t>
         </is>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>7</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>285.6255418934912</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>13.89169758211392</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.0003696223579664537</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-513.13224</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>58 [41-86]</t>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>62 [43-92]</t>
         </is>
       </c>
     </row>
@@ -1830,44 +1925,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32">
+        <v>38</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>0.82 [0.708-0.901]</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>0.08 [0.041-0.137]</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>0.07 [0.042-0.124]</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>680 [477-1009]</t>
         </is>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>8</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>286.9403228571429</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>15.20647854576561</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.0001915389818435082</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-514.01188</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>70 [49-105]</t>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>62 [43-92]</t>
         </is>
       </c>
     </row>
@@ -1877,44 +1975,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>0.95 [0.4-0]</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>0.05 [1-0]</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>622 [622-622]</t>
         </is>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>8</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>287.0640228571428</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>15.33017854576559</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.0001800512168451556</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-513.88818</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>64 [45-96]</t>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>57 [57-57]</t>
         </is>
       </c>
     </row>
@@ -1924,44 +2025,47 @@
           <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34">
+        <v>14</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>0.86 [0.749-0.925]</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>0.05 [0.029-0.086]</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>0.02 [0.002-0.165]</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>651 [452-981]</t>
         </is>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>7</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>287.2141718934911</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>15.48032758211389</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.0001670288964814634</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-511.5436</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>62 [43-92]</t>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>59 [41-89]</t>
         </is>
       </c>
     </row>
@@ -1971,44 +2075,47 @@
           <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>0.85 [0.738-0.918]</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>0.05 [0.03-0.093]</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>0.02 [0.002-0.127]</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>658 [459-987]</t>
         </is>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>8</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>287.5842128571429</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>15.8503685457656</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.000138815588167017</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-513.36799</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>67 [46-100]</t>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>60 [42-90]</t>
         </is>
       </c>
     </row>
@@ -2018,44 +2125,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>0.87 [0.699-0.941]</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>0.05 [0.03-0.078]</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>0.03 [0.007-0.108]</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>629 [436-954]</t>
         </is>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>7</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>288.5505618934911</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>16.81671758211388</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>8.562453194840419E-05</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-510.20722</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>62 [43-92]</t>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>57 [40-87]</t>
         </is>
       </c>
     </row>
@@ -2065,44 +2175,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37">
+        <v>48</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>0.95 [0.855-0.967]</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>0.05 [0.03-0.079]</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>0 [0-0.1]</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>619 [439-913]</t>
         </is>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>9</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>289.2980643113772</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>17.56421999999998</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>5.892235859913179E-05</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-513.87483</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>60 [42-88]</t>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>56 [40-83]</t>
         </is>
       </c>
     </row>
@@ -2112,44 +2225,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38">
+        <v>43</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>0.85 [0.779-0.905]</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>0.08 [0.04-0.135]</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>0.07 [0.043-0.116]</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>758 [524-1140]</t>
         </is>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>7</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>289.3234318934911</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>17.58958758211389</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>5.817971941042734E-05</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-509.43435</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>67 [47-101]</t>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>69 [48-104]</t>
         </is>
       </c>
     </row>
@@ -2159,44 +2275,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>0.9 [0.8-0]</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>0.04 [1-0]</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>570 [570-570]</t>
         </is>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>7</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>290.3218518934912</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>18.5880075821139</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>3.531567195939614E-05</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>-508.43592</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>62 [43-92]</t>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>52 [52-52]</t>
         </is>
       </c>
     </row>
@@ -2206,44 +2325,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40">
+        <v>24</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>0.82 [0.684-0.896]</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>0.09 [0.04-0.185]</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>0 [0-0.175]</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>851 [498-1565]</t>
         </is>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>7</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>290.3721318934911</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>18.63828758211389</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>3.443890312798542E-05</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>-508.38565</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>60 [43-88]</t>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>77 [45-142]</t>
         </is>
       </c>
     </row>
@@ -2253,44 +2375,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41">
+        <v>49</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>0.85 [0.778-0.904]</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>0.08 [0.04-0.139]</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>0.07 [0.041-0.116]</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>765 [527-1155]</t>
         </is>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>8</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>290.4219828571428</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>18.68813854576558</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>3.359110663477926E-05</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>-510.53022</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>72 [50-109]</t>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>70 [48-105]</t>
         </is>
       </c>
     </row>
@@ -2300,44 +2425,47 @@
           <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42">
+        <v>23</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>0.79 [0.692-0.866]</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>0.1 [0.045-0.196]</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>0 [0-0.051]</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>968 [560-1786]</t>
         </is>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>6</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>290.4754276470588</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>18.74158333568158</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>3.27053591707159E-05</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>-506.11375</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>64 [45-96]</t>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>88 [51-162]</t>
         </is>
       </c>
     </row>
@@ -2347,44 +2475,47 @@
           <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43">
+        <v>34</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>0.85 [0.777-0.903]</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>0.08 [0.043-0.136]</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>0.07 [0.05-0.116]</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>736 [511-1104]</t>
         </is>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>6</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>290.4858476470588</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>18.75200333568159</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>3.253540735833978E-05</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>-506.10333</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>61 [42-94]</t>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>67 [46-100]</t>
         </is>
       </c>
     </row>
@@ -2394,44 +2525,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44">
+        <v>57</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>0.78 [0.619-0.863]</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>0.16 [0.049-0.296]</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>0.05 [0.017-0.136]</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>771 [494-1271]</t>
         </is>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>9</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>291.4996143113772</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>19.76576999999997</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>1.959835474885785E-05</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>-511.67329</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>69 [48-104]</t>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>70 [45-116]</t>
         </is>
       </c>
     </row>
@@ -2441,44 +2575,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45">
+        <v>53</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>0.79 [0.651-0.885]</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>0.1 [0.038-0.231]</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>0.04 [0.007-0.161]</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>869 [523-1537]</t>
         </is>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>7</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>291.5251018934911</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>19.79125758211387</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>1.935018209975275E-05</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>-507.23267</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>62 [43-92]</t>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>79 [48-140]</t>
         </is>
       </c>
     </row>
@@ -2488,44 +2625,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46">
+        <v>27</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>0.8 [0.654-0.882]</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>0.12 [0.04-0.252]</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>0 [0-0.263]</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>835 [507-1470]</t>
         </is>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>8</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>291.6295928571428</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>19.89574854576557</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1.836517757523836E-05</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>-509.32261</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>51 [37-75]</t>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>76 [46-134]</t>
         </is>
       </c>
     </row>
@@ -2535,44 +2675,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47">
+        <v>54</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>0.8 [0.656-0.889]</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>0.1 [0.04-0.22]</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>0.03 [0.003-0.186]</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>815 [498-1426]</t>
         </is>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>8</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>291.6332528571428</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>19.8994085457656</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>1.833160003309716E-05</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>-509.31895</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>73 [50-110]</t>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>74 [45-130]</t>
         </is>
       </c>
     </row>
@@ -2582,44 +2725,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48">
+        <v>37</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>0.85 [0.777-0.902]</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>0.08 [0.043-0.14]</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>0.07 [0.05-0.116]</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>739 [512-1110]</t>
         </is>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>7</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>292.1202018934911</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>20.38635758211387</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>1.437013120129287E-05</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>-506.63757</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>65 [45-97]</t>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>67 [47-101]</t>
         </is>
       </c>
     </row>
@@ -2629,44 +2775,47 @@
           <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49">
+        <v>32</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>0.84 [0.723-0.917]</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>0.07 [0.036-0.121]</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>0.06 [0.03-0.145]</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>707 [494-1053]</t>
         </is>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>6</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>292.1783876470589</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>20.4445433356816</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>1.395808560317769E-05</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>-504.41079</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>56 [40-83]</t>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
         </is>
       </c>
     </row>
@@ -2676,44 +2825,47 @@
           <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50">
+        <v>41</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>0.85 [0.724-0.925]</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>0.06 [0.032-0.117]</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>0.05 [0.016-0.18]</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>707 [492-1060]</t>
         </is>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>7</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>292.4531218934911</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>20.71927758211388</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1.216656761034171E-05</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>-506.30466</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>70 [48-105]</t>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
         </is>
       </c>
     </row>
@@ -2723,44 +2875,47 @@
           <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>0.87 [0.762-0.937]</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>0.05 [0.028-0.082]</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>0.01 [0-0.512]</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>663 [458-1009]</t>
         </is>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>6</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>292.5205676470588</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>20.78672333568159</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>1.176311694255499E-05</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>-504.06861</v>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>62 [43-92]</t>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>60 [42-92]</t>
         </is>
       </c>
     </row>
@@ -2770,44 +2925,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52">
+        <v>26</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>0.79 [0.669-0.876]</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>0.1 [0.038-0.231]</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>0 [0-0.061]</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>966 [560-1777]</t>
         </is>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>7</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>292.6249218934911</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>20.89107758211389</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>1.11650887060464E-05</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>-506.13286</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>58 [41-86]</t>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>88 [51-162]</t>
         </is>
       </c>
     </row>
@@ -2817,44 +2975,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53">
+        <v>56</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>0.77 [0.641-0.87]</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>0.13 [0.042-0.269]</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0.05 [0.019-0.141]</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>826 [512-1414]</t>
         </is>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>8</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>292.7317228571428</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>20.99787854576556</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>1.058450721471629E-05</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>-508.22048</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>80 [47-147]</t>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>75 [47-129]</t>
         </is>
       </c>
     </row>
@@ -2864,44 +3025,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54">
+        <v>33</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>0.86 [0.689-0.929]</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>0.06 [0.035-0.117]</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>0.06 [0.026-0.141]</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>681 [475-1017]</t>
         </is>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>7</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>293.0105718934911</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>21.27672758211389</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>9.207025466281654E-06</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>-505.74721</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>79 [48-140]</t>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>62 [43-92]</t>
         </is>
       </c>
     </row>
@@ -2911,44 +3075,47 @@
           <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>0.86 [0.54-0.939]</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>0.06 [0.033-0.116]</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>0.05 [0.018-0.152]</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>659 [459-990]</t>
         </is>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>8</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>293.5443728571428</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>21.81052854576558</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>7.050273063219025E-06</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>-507.40783</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>74 [45-130]</t>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>60 [42-90]</t>
         </is>
       </c>
     </row>
@@ -2958,44 +3125,47 @@
           <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56">
+        <v>83</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>0.79 [0.65-0.89]</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>0.1 [0.035-0.229]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>0.04 [0.004-0.314]</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>892 [518-1650]</t>
         </is>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>8</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>293.6260828571428</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>21.89223854576557</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>6.768038754637819E-06</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>-507.32612</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>87 [48-168]</t>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>81 [47-150]</t>
         </is>
       </c>
     </row>
@@ -3005,44 +3175,47 @@
           <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57">
+        <v>87</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>0.77 [0.602-0.864]</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>0.16 [0.048-0.31]</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>0.05 [0.009-0.248]</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>762 [491-1251]</t>
         </is>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>10</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>293.6904512048193</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>21.95660689344203</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>6.553682953532421E-06</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>-511.72991</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>75 [47-129]</t>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>69 [45-114]</t>
         </is>
       </c>
     </row>
@@ -3052,44 +3225,47 @@
           <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>0.85 [0.742-0.922]</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>0.05 [0.03-0.087]</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>0.03 [0.008-0.111]</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>679 [468-1031]</t>
         </is>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>6</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>293.7127476470588</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>21.97890333568159</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>6.481026792781613E-06</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>-502.87643</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>70 [45-116]</t>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>62 [43-94]</t>
         </is>
       </c>
     </row>
@@ -3099,44 +3275,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59">
+        <v>59</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>0.84 [0.72-0.916]</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>0.07 [0.035-0.125]</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>0.06 [0.029-0.145]</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>708 [494-1056]</t>
         </is>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>7</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>293.9077118934911</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>22.17386758211387</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>5.879059677157837E-06</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>-504.85006</v>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>71 [49-106]</t>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
         </is>
       </c>
     </row>
@@ -3146,44 +3325,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60">
+        <v>42</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>0.86 [0.649-0.937]</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>0.06 [0.029-0.116]</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>0.05 [0.011-0.193]</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>676 [464-1034]</t>
         </is>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>8</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>294.0425428571428</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>22.30869854576559</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>5.495784525440368E-06</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>-506.90966</v>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>64 [45-96]</t>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>61 [42-94]</t>
         </is>
       </c>
     </row>
@@ -3193,44 +3375,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61">
+        <v>47</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>0.85 [0.721-0.924]</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>0.06 [0.031-0.12]</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>0.05 [0.015-0.182]</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>710 [494-1064]</t>
         </is>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>8</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>294.0865128571428</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>22.3526685457656</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>5.376278189525598E-06</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>-506.86569</v>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>60 [42-90]</t>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>65 [45-97]</t>
         </is>
       </c>
     </row>
@@ -3240,44 +3425,47 @@
           <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62">
+        <v>17</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>0.88 [0.817-0.927]</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>0.05 [0.029-0.071]</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>656 [457-987]</t>
         </is>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>7</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>294.1669518934912</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>22.43310758211391</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>5.164337516059679E-06</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>-504.59083</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>67 [46-102]</t>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>60 [42-90]</t>
         </is>
       </c>
     </row>
@@ -3287,42 +3475,45 @@
           <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>0.84 [0.707-0.916]</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>0.07 [0.036-0.133]</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>0.06 [0.023-0.22]</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>706 [493-1053]</t>
         </is>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>7</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>294.1767918934912</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>22.4429475821139</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>5.138991378108242E-06</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>-504.58099</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>64 [45-96]</t>
         </is>
@@ -3334,44 +3525,47 @@
           <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64">
+        <v>86</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>0.78 [0.64-0.872]</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>0.12 [0.039-0.274]</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>0.05 [0.009-0.304]</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>849 [503-1538]</t>
         </is>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>9</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>294.8890043113772</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>23.15515999999997</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>3.599340453543057E-06</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>-508.28389</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>63 [44-94]</t>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>77 [46-140]</t>
         </is>
       </c>
     </row>
@@ -3381,44 +3575,47 @@
           <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65">
+        <v>31</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>0.86 [0.782-0.912]</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>0.07 [0.039-0.124]</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>0.07 [0.041-0.123]</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>775 [537-1160]</t>
         </is>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>5</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>294.9622271929825</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>23.22838288160523</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>3.469946515799674E-06</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>-499.48371</v>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>64 [44-95]</t>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>70 [49-105]</t>
         </is>
       </c>
     </row>
@@ -3428,44 +3625,47 @@
           <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>0.87 [0.669-0.941]</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>0.05 [0.029-0.083]</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>0.02 [0.003-0.154]</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>640 [440-979]</t>
         </is>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>6</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>294.9773376470588</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>23.24349333568159</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>3.44382906792169E-06</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>-501.61184</v>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>62 [44-93]</t>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>58 [40-89]</t>
         </is>
       </c>
     </row>
@@ -3475,44 +3675,47 @@
           <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>0.84 [0.734-0.917]</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>0.05 [0.03-0.092]</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>0.03 [0.009-0.104]</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>682 [472-1028]</t>
         </is>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>7</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>295.0537018934912</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>23.31985758211391</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>3.314815050149916E-06</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>-503.70407</v>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>61 [43-91]</t>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>62 [43-93]</t>
         </is>
       </c>
     </row>
@@ -3522,44 +3725,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>0.86 [0.761-0.927]</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>0.06 [0.025-0.138]</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>0 [0-0.82]</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1166 [622-2342]</t>
         </is>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>6</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>295.0603476470588</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>23.32650333568159</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>3.303818608205974E-06</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>-501.52883</v>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>64 [45-96]</t>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>106 [57-213]</t>
         </is>
       </c>
     </row>
@@ -3569,44 +3775,47 @@
           <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69">
+        <v>61</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>0.84 [0.759-0.898]</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>0.08 [0.044-0.139]</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>0.07 [0.036-0.153]</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>741 [511-1118]</t>
         </is>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>6</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>295.1019776470588</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>23.36813333568159</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>3.235760396957673E-06</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>-501.48719</v>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>63 [44-94]</t>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>67 [46-102]</t>
         </is>
       </c>
     </row>
@@ -3616,44 +3825,47 @@
           <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>0.86 [0.786-0.916]</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>0.07 [0.036-0.121]</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>0.06 [0.033-0.129]</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>795 [549-1194]</t>
         </is>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>6</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>295.1930376470588</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>23.45919333568156</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>3.091739734935766E-06</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>-501.39614</v>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>66 [45-101]</t>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>72 [50-109]</t>
         </is>
       </c>
     </row>
@@ -3663,44 +3875,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71">
+        <v>55</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>0.85 [0.737-0.921]</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>0.07 [0.027-0.167]</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>0.04 [0.009-0.257]</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>953 [530-1848]</t>
         </is>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>7</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>295.9193618934912</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>24.1855175821139</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>2.150223586108443E-06</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>-502.83842</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>69 [47-104]</t>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>87 [48-168]</t>
         </is>
       </c>
     </row>
@@ -3710,44 +3925,47 @@
           <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>0.84 [0.761-0.902]</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>0.08 [0.041-0.139]</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>0.06 [0.029-0.152]</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>755 [519-1144]</t>
         </is>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>7</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>295.9323418934911</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>24.19849758211387</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>2.136313821045617E-06</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>-502.82544</v>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>65 [45-96]</t>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>69 [47-104]</t>
         </is>
       </c>
     </row>
@@ -3757,44 +3975,47 @@
           <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73">
+        <v>89</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>0.84 [0.705-0.916]</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>0.07 [0.036-0.135]</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>0.06 [0.022-0.239]</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>708 [494-1056]</t>
         </is>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>8</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>295.9623928571428</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>24.22854854576559</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>2.104454625821533E-06</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>-504.98981</v>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>62 [44-92]</t>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>64 [45-96]</t>
         </is>
       </c>
     </row>
@@ -3804,44 +4025,47 @@
           <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>0.86 [0.755-0.931]</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>0.05 [0.029-0.082]</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>0.02 [0.003-0.153]</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>675 [464-1029]</t>
         </is>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>5</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>296.2407071929825</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>24.50686288160523</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>1.831067592307512E-06</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>-498.20523</v>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>64 [44-95]</t>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>61 [42-94]</t>
         </is>
       </c>
     </row>
@@ -3851,44 +4075,47 @@
           <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75">
+        <v>52</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>0.84 [0.736-0.906]</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>0.08 [0.033-0.191]</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>0.06 [0.034-0.143]</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>882 [515-1620]</t>
         </is>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>6</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>296.6220776470588</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>24.88823333568155</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>1.513180842571757E-06</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>-499.9671</v>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>62 [43-93]</t>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>80 [47-147]</t>
         </is>
       </c>
     </row>
@@ -3898,44 +4125,47 @@
           <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76">
+        <v>58</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>0.86 [0.782-0.911]</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>0.07 [0.039-0.126]</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>0.07 [0.041-0.123]</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>779 [539-1168]</t>
         </is>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>6</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>296.8225076470588</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>25.08866333568159</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>1.368888303988023E-06</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>-499.76667</v>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>61 [43-90]</t>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>71 [49-106]</t>
         </is>
       </c>
     </row>
@@ -3945,44 +4175,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77">
+        <v>46</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>0.86 [0.787-0.916]</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>0.07 [0.035-0.123]</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>0.06 [0.031-0.131]</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>802 [553-1205]</t>
         </is>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>7</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>296.9414418934912</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>25.20759758211392</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>1.289857607207593E-06</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>-501.81634</v>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>69 [47-105]</t>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>73 [50-110]</t>
         </is>
       </c>
     </row>
@@ -3992,44 +4225,47 @@
           <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78">
+        <v>88</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>0.84 [0.759-0.898]</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>0.08 [0.043-0.142]</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>0.07 [0.035-0.157]</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>745 [513-1126]</t>
         </is>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>7</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>296.9628518934912</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>25.22900758211392</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>1.276123325424414E-06</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>-501.79493</v>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>65 [45-97]</t>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>68 [47-102]</t>
         </is>
       </c>
     </row>
@@ -4039,44 +4275,47 @@
           <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79">
+        <v>82</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>0.83 [0.731-0.9]</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>0.08 [0.035-0.193]</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>0.07 [0.03-0.172]</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>785 [483-1364]</t>
         </is>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>7</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>297.1405318934911</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>25.40668758211388</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>1.16764258346799E-06</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>-501.61725</v>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>76 [50-121]</t>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>71 [44-124]</t>
         </is>
       </c>
     </row>
@@ -4086,44 +4325,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80">
+        <v>76</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>0.84 [0.761-0.902]</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>0.08 [0.04-0.141]</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>0.06 [0.027-0.155]</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>761 [522-1154]</t>
         </is>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>8</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>297.7330928571428</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>25.99924854576557</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>8.682343159030933E-07</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>-503.2191</v>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>64 [45-96]</t>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>69 [47-105]</t>
         </is>
       </c>
     </row>
@@ -4133,44 +4375,47 @@
           <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81">
+        <v>29</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>0.86 [0.749-0.928]</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>0.05 [0.029-0.087]</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>0.02 [0.003-0.137]</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>680 [470-1030]</t>
         </is>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>6</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>297.8213376470588</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>26.08749333568159</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>8.307585777332771E-07</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>-498.76784</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>63 [44-93]</t>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>62 [43-94]</t>
         </is>
       </c>
     </row>
@@ -4180,44 +4425,47 @@
           <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82">
+        <v>85</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>0.85 [0.728-0.924]</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>0.07 [0.026-0.18]</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>0.04 [0.005-0.425]</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>948 [490-2029]</t>
         </is>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>8</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>298.1131628571428</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>26.37931854576556</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>7.179691685784721E-07</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>-502.83903</v>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>71 [47-110]</t>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>86 [45-184]</t>
         </is>
       </c>
     </row>
@@ -4227,44 +4475,47 @@
           <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83">
+        <v>13</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>0.92 [0.893-0.94]</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.068]</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>812 [560-1220]</t>
         </is>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>6</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>299.7600076470588</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>28.02616333568159</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>3.151359813401188E-07</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>-496.82917</v>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>71 [44-124]</t>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>74 [51-111]</t>
         </is>
       </c>
     </row>
@@ -4274,44 +4525,47 @@
           <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84">
+        <v>19</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>0.92 [0.888-0.936]</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.072]</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>832 [572-1253]</t>
         </is>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>7</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>299.8737618934912</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>28.13991758211392</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>2.977121586830004E-07</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>-498.88402</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>81 [47-150]</t>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>76 [52-114]</t>
         </is>
       </c>
     </row>
@@ -4321,44 +4575,47 @@
           <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>0.92 [0.892-0.938]</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.067]</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>826 [569-1240]</t>
         </is>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>5</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>301.6237471929825</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>29.88990288160522</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>1.241058039573171E-07</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>-492.82219</v>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>65 [43-102]</t>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>75 [52-113]</t>
         </is>
       </c>
     </row>
@@ -4368,44 +4625,47 @@
           <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86">
+        <v>16</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>0.92 [0.889-0.936]</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>0.04 [0.028-0.07]</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>839 [577-1263]</t>
         </is>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>6</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>302.6632876470588</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>30.92944333568158</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>7.380040596482806E-08</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>-493.92589</v>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>86 [45-184]</t>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>76 [52-115]</t>
         </is>
       </c>
     </row>
@@ -4415,44 +4675,47 @@
           <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>0.93 [0.908-0.949]</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>0.04 [0.027-0.06]</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>766 [533-1142]</t>
         </is>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>4</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>308.6874181395349</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>36.95357382815763</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>3.630240814763934E-09</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>-483.6402</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>77 [46-140]</t>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>70 [48-104]</t>
         </is>
       </c>
     </row>
@@ -4462,44 +4725,47 @@
           <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>0.93 [0.91-0.953]</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>0.04 [0.026-0.06]</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>748 [521-1117]</t>
         </is>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>5</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>309.3177771929825</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>37.58393288160522</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>2.648833778393736E-09</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>-485.12816</v>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>69 [45-114]</t>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>68 [47-102]</t>
         </is>
       </c>
     </row>
@@ -4509,44 +4775,47 @@
           <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89">
+        <v>28</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>0.93 [0.905-0.947]</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>0.04 [0.027-0.063]</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>0 [0-0]</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>775 [538-1159]</t>
         </is>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>5</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>310.0744971929824</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>38.34065288160519</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>1.814408391540705E-09</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>-484.37144</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>68 [47-102]</t>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>70 [49-105]</t>
         </is>
       </c>
     </row>
@@ -4556,44 +4825,47 @@
           <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>0.93 [0.907-0.951]</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>0.04 [0.026-0.063]</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>0 [0-1]</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>757 [526-1132]</t>
         </is>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>6</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>310.5573376470588</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>38.82349333568158</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>1.425238591689294E-09</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>-486.03183</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>64 [45-96]</t>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>69 [48-103]</t>
         </is>
       </c>
     </row>
@@ -4603,44 +4875,47 @@
           <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91">
+        <v>22</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>0.91 [0.779-0.969]</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>0.07 [0.037-0.125]</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>0.09 [0.083-0.098]</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1018 [689-1551]</t>
         </is>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>5</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>310.9610571929825</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>39.22721288160523</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>1.164718537956986E-09</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>-483.48488</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>65 [45-97]</t>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>93 [63-141]</t>
         </is>
       </c>
     </row>
